--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E5A601-05AB-4E56-ADCE-3727DF43191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9E0BBF-48BE-4778-83AD-6A291534A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_16.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$5:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_16.2'!$B$5:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -280,21 +280,21 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,22 +562,22 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="17"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -612,13 +612,13 @@
       <c r="B7" s="9">
         <v>45383</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>16416</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>2293</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>18546</v>
       </c>
       <c r="F7" s="6">
@@ -646,13 +646,13 @@
       <c r="B9" s="9">
         <v>45323</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>21105</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>2904</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>14445</v>
       </c>
       <c r="F9" s="6">
@@ -680,13 +680,13 @@
       <c r="B11" s="9">
         <v>45261</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>18808</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>1903</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>14641</v>
       </c>
       <c r="F11" s="6">
@@ -714,13 +714,13 @@
       <c r="B13" s="9">
         <v>45200</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>27428</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>2230</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>20021</v>
       </c>
       <c r="F13" s="6">
@@ -748,13 +748,13 @@
       <c r="B15" s="9">
         <v>45139</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>31023</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>2342</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>28982</v>
       </c>
       <c r="F15" s="6">
@@ -782,13 +782,13 @@
       <c r="B17" s="9">
         <v>45078</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>25003</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>2254</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>22228</v>
       </c>
       <c r="F17" s="6">
@@ -816,13 +816,13 @@
       <c r="B19" s="9">
         <v>45017</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>17034</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>3155</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>23980</v>
       </c>
       <c r="F19" s="6">
@@ -850,13 +850,13 @@
       <c r="B21" s="9">
         <v>44958</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>20006</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>4402</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>19178</v>
       </c>
       <c r="F21" s="6">
@@ -884,13 +884,13 @@
       <c r="B23" s="9">
         <v>44896</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>13761</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>3014</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>10511</v>
       </c>
       <c r="F23" s="6">
@@ -918,13 +918,13 @@
       <c r="B25" s="9">
         <v>44835</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>17318</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>3869</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>9874</v>
       </c>
       <c r="F25" s="6">
@@ -952,13 +952,13 @@
       <c r="B27" s="9">
         <v>44774</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>29334</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>5646</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>21803</v>
       </c>
       <c r="F27" s="6">
@@ -986,13 +986,13 @@
       <c r="B29" s="9">
         <v>44713</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="12">
         <v>23417</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>4727</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>18976</v>
       </c>
       <c r="F29" s="6">
@@ -1020,13 +1020,13 @@
       <c r="B31" s="9">
         <v>44652</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>23639</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>4652</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>19838</v>
       </c>
       <c r="F31" s="6">
@@ -1054,13 +1054,13 @@
       <c r="B33" s="9">
         <v>44593</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>32929</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>4304</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>9793</v>
       </c>
       <c r="F33" s="6">
@@ -1088,13 +1088,13 @@
       <c r="B35" s="9">
         <v>44531</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>37398</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>4763</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>11530</v>
       </c>
       <c r="F35" s="6">
@@ -1122,13 +1122,13 @@
       <c r="B37" s="9">
         <v>44470</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>44633</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>6341</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>13013</v>
       </c>
       <c r="F37" s="6">
@@ -1156,13 +1156,13 @@
       <c r="B39" s="9">
         <v>44409</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="12">
         <v>38930</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>5692</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>13620</v>
       </c>
       <c r="F39" s="6">
@@ -1190,13 +1190,13 @@
       <c r="B41" s="9">
         <v>44348</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="12">
         <v>31574</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <v>4170</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="12">
         <v>11639</v>
       </c>
       <c r="F41" s="6">
@@ -1224,13 +1224,13 @@
       <c r="B43" s="9">
         <v>44287</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="12">
         <v>14823</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="12">
         <v>3009</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
         <v>10956</v>
       </c>
       <c r="F43" s="6">
@@ -1258,13 +1258,13 @@
       <c r="B45" s="9">
         <v>44228</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="12">
         <v>9491</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="12">
         <v>1331</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="12">
         <v>8444</v>
       </c>
       <c r="F45" s="6">
@@ -1292,13 +1292,13 @@
       <c r="B47" s="9">
         <v>44166</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>6302</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <v>1143</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="12">
         <v>5394</v>
       </c>
       <c r="F47" s="6">
@@ -1326,13 +1326,13 @@
       <c r="B49" s="9">
         <v>44105</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="12">
         <v>7955</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>1236</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
         <v>7888</v>
       </c>
       <c r="F49" s="6">
@@ -1360,13 +1360,13 @@
       <c r="B51" s="9">
         <v>44044</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="12">
         <v>1848</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>396</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <v>5235</v>
       </c>
       <c r="F51" s="6">
@@ -1394,13 +1394,13 @@
       <c r="B53" s="9">
         <v>43983</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="12">
         <v>4370</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="12">
         <v>1083</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="12">
         <v>1354</v>
       </c>
       <c r="F53" s="6">
@@ -1428,13 +1428,13 @@
       <c r="B55" s="9">
         <v>43922</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="12">
         <v>1829</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="12">
         <v>439</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="12">
         <v>2495</v>
       </c>
       <c r="F55" s="6">
@@ -1462,13 +1462,13 @@
       <c r="B57" s="9">
         <v>43862</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="12">
         <v>15545</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="12">
         <v>3625</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="12">
         <v>12562</v>
       </c>
       <c r="F57" s="6">
@@ -1496,13 +1496,13 @@
       <c r="B59" s="9">
         <v>43800</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="12">
         <v>7490</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="12">
         <v>1315</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="12">
         <v>10064</v>
       </c>
       <c r="F59" s="6">
@@ -1530,13 +1530,13 @@
       <c r="B61" s="9">
         <v>43739</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="12">
         <v>12029</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="12">
         <v>2021</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="12">
         <v>15179</v>
       </c>
       <c r="F61" s="6">
@@ -1564,13 +1564,13 @@
       <c r="B63" s="9">
         <v>43678</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="12">
         <v>11512</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="12">
         <v>2015</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="12">
         <v>18110</v>
       </c>
       <c r="F63" s="6">
@@ -1598,13 +1598,13 @@
       <c r="B65" s="9">
         <v>43617</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="12">
         <v>16270</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="12">
         <v>2950</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="12">
         <v>15350</v>
       </c>
       <c r="F65" s="6">
@@ -1632,13 +1632,13 @@
       <c r="B67" s="9">
         <v>43556</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="12">
         <v>14481</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="12">
         <v>2612</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="12">
         <v>15120</v>
       </c>
       <c r="F67" s="6">
@@ -1666,13 +1666,13 @@
       <c r="B69" s="9">
         <v>43497</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="12">
         <v>17075</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="12">
         <v>2783</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="12">
         <v>21645</v>
       </c>
       <c r="F69" s="6">
@@ -1700,13 +1700,13 @@
       <c r="B71" s="9">
         <v>43435</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="12">
         <v>9263</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="12">
         <v>1691</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="12">
         <v>9658</v>
       </c>
       <c r="F71" s="6">
@@ -1734,13 +1734,13 @@
       <c r="B73" s="9">
         <v>43374</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="12">
         <v>17136</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="12">
         <v>2824</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="12">
         <v>16026</v>
       </c>
       <c r="F73" s="6">
@@ -1768,13 +1768,13 @@
       <c r="B75" s="9">
         <v>43313</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="12">
         <v>17146</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="12">
         <v>2633</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="12">
         <v>22408</v>
       </c>
       <c r="F75" s="6">
@@ -1802,13 +1802,13 @@
       <c r="B77" s="9">
         <v>43252</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="12">
         <v>16106</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="12">
         <v>2362</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="12">
         <v>15900</v>
       </c>
       <c r="F77" s="6">
@@ -1836,13 +1836,13 @@
       <c r="B79" s="9">
         <v>43191</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="12">
         <v>15305</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="12">
         <v>2604</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="12">
         <v>19584</v>
       </c>
       <c r="F79" s="6">
@@ -1870,13 +1870,13 @@
       <c r="B81" s="9">
         <v>43132</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="12">
         <v>12834</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="12">
         <v>2298</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="12">
         <v>14963</v>
       </c>
       <c r="F81" s="6">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9E0BBF-48BE-4778-83AD-6A291534A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD811781-6D4A-446A-BEEC-5AE1928AF6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -143,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -167,48 +167,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -252,12 +212,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,41 +236,122 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -312,6 +362,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:F82" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:F82" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A7058EC5-920C-42DD-BC78-4C9F0959DA70}" name="Periodo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0E330944-7C2C-4F68-B1D6-3ECEEC6D8EBD}" name="Carga " dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AAD39C57-1D5E-4A74-8193-F218D9A82D51}" name="Pasaje" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{055E7596-F4F6-47CD-A63F-090C49DE8191}" name="Verificaciones " dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FC4FC501-C5A0-4E9D-942C-76456C2F7E0F}" name="Inspecciones" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,8 +619,8 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9.69921875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
@@ -562,22 +632,22 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -587,46 +657,46 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+      <c r="B6" s="17">
         <v>45413</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="18">
         <v>13950</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="18">
         <v>2035</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="18">
         <v>19876</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="18">
         <v>457</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <v>45383</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="16">
         <v>16416</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>2293</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>18546</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="16">
         <v>383</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="12">
         <v>45352</v>
       </c>
       <c r="C8" s="4">
@@ -638,63 +708,63 @@
       <c r="E8" s="4">
         <v>16265</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>338</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
+      <c r="B9" s="13">
         <v>45323</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>21105</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>2904</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>14445</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="16">
         <v>363</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+      <c r="B10" s="14">
         <v>45292</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>23283</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>2461</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>16476</v>
       </c>
       <c r="F10" s="5">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
+    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19">
         <v>45261</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="20">
         <v>18808</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="20">
         <v>1903</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="20">
         <v>14641</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="20">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
         <v>45231</v>
       </c>
       <c r="C12" s="4">
@@ -706,29 +776,29 @@
       <c r="E12" s="4">
         <v>18945</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13">
         <v>45200</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="16">
         <v>27428</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="16">
         <v>2230</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="16">
         <v>20021</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="16">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12">
         <v>45170</v>
       </c>
       <c r="C14" s="4">
@@ -740,29 +810,29 @@
       <c r="E14" s="4">
         <v>20000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13">
         <v>45139</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="16">
         <v>31023</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="16">
         <v>2342</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="16">
         <v>28982</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="16">
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="12">
         <v>45108</v>
       </c>
       <c r="C16" s="4">
@@ -774,29 +844,29 @@
       <c r="E16" s="4">
         <v>24333</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="13">
         <v>45078</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="16">
         <v>25003</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="16">
         <v>2254</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
         <v>22228</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="16">
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
         <v>45047</v>
       </c>
       <c r="C18" s="4">
@@ -808,29 +878,29 @@
       <c r="E18" s="4">
         <v>20706</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="13">
         <v>45017</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="16">
         <v>17034</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="16">
         <v>3155</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="16">
         <v>23980</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="16">
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="12">
         <v>44986</v>
       </c>
       <c r="C20" s="4">
@@ -842,63 +912,63 @@
       <c r="E20" s="4">
         <v>25002</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="13">
         <v>44958</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="16">
         <v>20006</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="16">
         <v>4402</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="16">
         <v>19178</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="16">
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="14">
         <v>44927</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>21056</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>4233</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>14539</v>
       </c>
       <c r="F22" s="5">
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="9">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="19">
         <v>44896</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="20">
         <v>13761</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="20">
         <v>3014</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="20">
         <v>10511</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="20">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="12">
         <v>44866</v>
       </c>
       <c r="C24" s="4">
@@ -910,29 +980,29 @@
       <c r="E24" s="4">
         <v>1312</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13">
         <v>44835</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="16">
         <v>17318</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="16">
         <v>3869</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="16">
         <v>9874</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="16">
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="12">
         <v>44805</v>
       </c>
       <c r="C26" s="4">
@@ -944,29 +1014,29 @@
       <c r="E26" s="4">
         <v>17447</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13">
         <v>44774</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="16">
         <v>29334</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="16">
         <v>5646</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="16">
         <v>21803</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="16">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="12">
         <v>44743</v>
       </c>
       <c r="C28" s="4">
@@ -978,29 +1048,29 @@
       <c r="E28" s="4">
         <v>19216</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="13">
         <v>44713</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="16">
         <v>23417</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="16">
         <v>4727</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="16">
         <v>18976</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="16">
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="12">
         <v>44682</v>
       </c>
       <c r="C30" s="4">
@@ -1012,29 +1082,29 @@
       <c r="E30" s="4">
         <v>19105</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="13">
         <v>44652</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="16">
         <v>23639</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="16">
         <v>4652</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="16">
         <v>19838</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="16">
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12">
         <v>44621</v>
       </c>
       <c r="C32" s="4">
@@ -1046,63 +1116,63 @@
       <c r="E32" s="4">
         <v>15285</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="13">
         <v>44593</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="16">
         <v>32929</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="16">
         <v>4304</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="16">
         <v>9793</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="16">
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="14">
         <v>44562</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>38415</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>4114</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>6064</v>
       </c>
       <c r="F34" s="5">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="19">
         <v>44531</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="20">
         <v>37398</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="20">
         <v>4763</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="20">
         <v>11530</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="20">
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="12">
         <v>44501</v>
       </c>
       <c r="C36" s="4">
@@ -1114,29 +1184,29 @@
       <c r="E36" s="4">
         <v>14360</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="13">
         <v>44470</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="16">
         <v>44633</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="16">
         <v>6341</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="16">
         <v>13013</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="16">
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="12">
         <v>44440</v>
       </c>
       <c r="C38" s="4">
@@ -1148,29 +1218,29 @@
       <c r="E38" s="4">
         <v>9812</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="13">
         <v>44409</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="16">
         <v>38930</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="16">
         <v>5692</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="16">
         <v>13620</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="16">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="12">
         <v>44378</v>
       </c>
       <c r="C40" s="4">
@@ -1182,29 +1252,29 @@
       <c r="E40" s="4">
         <v>8801</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="13">
         <v>44348</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="16">
         <v>31574</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="16">
         <v>4170</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="16">
         <v>11639</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="16">
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="12">
         <v>44317</v>
       </c>
       <c r="C42" s="4">
@@ -1216,29 +1286,29 @@
       <c r="E42" s="4">
         <v>9989</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="13">
         <v>44287</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="16">
         <v>14823</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="16">
         <v>3009</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="16">
         <v>10956</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="16">
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="10">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="12">
         <v>44256</v>
       </c>
       <c r="C44" s="4">
@@ -1250,63 +1320,63 @@
       <c r="E44" s="4">
         <v>10676</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="13">
         <v>44228</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="16">
         <v>9491</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="16">
         <v>1331</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="16">
         <v>8444</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="16">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="14">
         <v>44197</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>7242</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>1008</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>4857</v>
       </c>
       <c r="F46" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="9">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="19">
         <v>44166</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="20">
         <v>6302</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="20">
         <v>1143</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="20">
         <v>5394</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="20">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="12">
         <v>44136</v>
       </c>
       <c r="C48" s="4">
@@ -1318,29 +1388,29 @@
       <c r="E48" s="4">
         <v>7405</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13">
         <v>44105</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="16">
         <v>7955</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="16">
         <v>1236</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="16">
         <v>7888</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="16">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="12">
         <v>44075</v>
       </c>
       <c r="C50" s="4">
@@ -1352,29 +1422,29 @@
       <c r="E50" s="4">
         <v>6869</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="13">
         <v>44044</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="16">
         <v>1848</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="16">
         <v>396</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="16">
         <v>5235</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="12">
         <v>44013</v>
       </c>
       <c r="C52" s="4">
@@ -1386,29 +1456,29 @@
       <c r="E52" s="4">
         <v>1076</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="13">
         <v>43983</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="16">
         <v>4370</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="16">
         <v>1083</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="16">
         <v>1354</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="10">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="12">
         <v>43952</v>
       </c>
       <c r="C54" s="4">
@@ -1420,29 +1490,29 @@
       <c r="E54" s="4">
         <v>1395</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="13">
         <v>43922</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="16">
         <v>1829</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="16">
         <v>439</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="16">
         <v>2495</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="10">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="12">
         <v>43891</v>
       </c>
       <c r="C56" s="4">
@@ -1454,63 +1524,63 @@
       <c r="E56" s="4">
         <v>9281</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13">
         <v>43862</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="16">
         <v>15545</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="16">
         <v>3625</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="16">
         <v>12562</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="16">
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="14">
         <v>43831</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="5">
         <v>14810</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>2699</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <v>9652</v>
       </c>
       <c r="F58" s="5">
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="9">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="19">
         <v>43800</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="20">
         <v>7490</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="20">
         <v>1315</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="20">
         <v>10064</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="20">
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="10">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="12">
         <v>43770</v>
       </c>
       <c r="C60" s="4">
@@ -1522,29 +1592,29 @@
       <c r="E60" s="4">
         <v>14022</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>379</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="13">
         <v>43739</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="16">
         <v>12029</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="16">
         <v>2021</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="16">
         <v>15179</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="16">
         <v>432</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="12">
         <v>43709</v>
       </c>
       <c r="C62" s="4">
@@ -1556,29 +1626,29 @@
       <c r="E62" s="4">
         <v>13758</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="13">
         <v>43678</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="16">
         <v>11512</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="16">
         <v>2015</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="16">
         <v>18110</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="16">
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="10">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="12">
         <v>43647</v>
       </c>
       <c r="C64" s="4">
@@ -1590,29 +1660,29 @@
       <c r="E64" s="4">
         <v>18270</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="13">
         <v>43617</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="16">
         <v>16270</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="16">
         <v>2950</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="16">
         <v>15350</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="16">
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="10">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="12">
         <v>43586</v>
       </c>
       <c r="C66" s="4">
@@ -1624,29 +1694,29 @@
       <c r="E66" s="4">
         <v>16430</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="13">
         <v>43556</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="16">
         <v>14481</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="16">
         <v>2612</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="16">
         <v>15120</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="16">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="10">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="12">
         <v>43525</v>
       </c>
       <c r="C68" s="4">
@@ -1658,63 +1728,63 @@
       <c r="E68" s="4">
         <v>15354</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="13">
         <v>43497</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="16">
         <v>17075</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="16">
         <v>2783</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="16">
         <v>21645</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="16">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="14">
         <v>43466</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="5">
         <v>20238</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="5">
         <v>2855</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <v>10553</v>
       </c>
       <c r="F70" s="5">
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="9">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="13">
         <v>43435</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="6">
         <v>9263</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="6">
         <v>1691</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="6">
         <v>9658</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="16">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="10">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="12">
         <v>43405</v>
       </c>
       <c r="C72" s="4">
@@ -1726,29 +1796,29 @@
       <c r="E72" s="4">
         <v>13039</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="9">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="13">
         <v>43374</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="6">
         <v>17136</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="6">
         <v>2824</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="6">
         <v>16026</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="16">
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="12">
         <v>43344</v>
       </c>
       <c r="C74" s="4">
@@ -1760,29 +1830,29 @@
       <c r="E74" s="4">
         <v>17633</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <v>371</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="9">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="13">
         <v>43313</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="6">
         <v>17146</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="6">
         <v>2633</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="6">
         <v>22408</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="16">
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="10">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="12">
         <v>43282</v>
       </c>
       <c r="C76" s="4">
@@ -1794,29 +1864,29 @@
       <c r="E76" s="4">
         <v>20124</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="9">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="13">
         <v>43252</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="6">
         <v>16106</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="6">
         <v>2362</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="6">
         <v>15900</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="16">
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="10">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="12">
         <v>43221</v>
       </c>
       <c r="C78" s="4">
@@ -1828,29 +1898,29 @@
       <c r="E78" s="4">
         <v>17165</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <v>453</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="9">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="13">
         <v>43191</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="6">
         <v>15305</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="6">
         <v>2604</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="6">
         <v>19584</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="16">
         <v>386</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="10">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="12">
         <v>43160</v>
       </c>
       <c r="C80" s="4">
@@ -1862,41 +1932,41 @@
       <c r="E80" s="4">
         <v>15798</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="9">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="13">
         <v>43132</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="6">
         <v>12834</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="6">
         <v>2298</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="6">
         <v>14963</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="16">
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="11">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="12">
         <v>43101</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="4">
         <v>14378</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="4">
         <v>2641</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="4">
         <v>11312</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="4">
         <v>214</v>
       </c>
     </row>
@@ -1916,12 +1986,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="2">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E501218-DAC3-4402-86A1-BF81BFC1298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F4875-8179-4051-873B-A23CC917015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -117,19 +117,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -145,18 +139,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,80 +270,197 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -357,41 +484,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Geomanist"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -406,22 +498,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G87" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G87" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:G88" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7058EC5-920C-42DD-BC78-4C9F0959DA70}" name="Año" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{820B2BF1-CA84-44B7-A0A4-61D9C5A02C3C}" name="Mes" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0E330944-7C2C-4F68-B1D6-3ECEEC6D8EBD}" name="Carga " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{AAD39C57-1D5E-4A74-8193-F218D9A82D51}" name="Pasaje" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{055E7596-F4F6-47CD-A63F-090C49DE8191}" name="Verificaciones " dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{FC4FC501-C5A0-4E9D-942C-76456C2F7E0F}" name="Inspecciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A7058EC5-920C-42DD-BC78-4C9F0959DA70}" name="Año" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{820B2BF1-CA84-44B7-A0A4-61D9C5A02C3C}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0E330944-7C2C-4F68-B1D6-3ECEEC6D8EBD}" name="Carga " dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AAD39C57-1D5E-4A74-8193-F218D9A82D51}" name="Pasaje" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{055E7596-F4F6-47CD-A63F-090C49DE8191}" name="Verificaciones " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FC4FC501-C5A0-4E9D-942C-76456C2F7E0F}" name="Inspecciones" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,1725 +741,1746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I90"/>
+  <dimension ref="B2:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="18" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9121</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1662</v>
+      </c>
+      <c r="F6" s="13">
+        <v>18356</v>
+      </c>
+      <c r="G6" s="13">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="15">
         <v>10095</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="15">
         <v>1837</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="15">
         <v>18950</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="15">
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="12">
         <v>9675</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="12">
         <v>1716</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="13">
         <v>17339</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="13">
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="15">
         <v>11607</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="15">
         <v>2091</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="15">
         <v>24464</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="15">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="12">
         <v>11902</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="12">
         <v>2030</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="12">
         <v>21401</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="12">
         <v>494</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="15">
         <v>12046</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="15">
         <v>1780</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="15">
         <v>18885</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="15">
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="12">
         <v>13950</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="12">
         <v>2035</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="12">
         <v>19876</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="12">
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="15">
         <v>16416</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="15">
         <v>2293</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="15">
         <v>18546</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="15">
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="12">
         <v>16959</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="12">
         <v>2327</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="12">
         <v>16265</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="12">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="15">
         <v>21105</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="15">
         <v>2904</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="15">
         <v>14445</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="15">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="17">
         <v>23283</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="17">
         <v>2461</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="17">
         <v>16476</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="17">
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="19">
         <v>18808</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="19">
         <v>1903</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="19">
         <v>14641</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="19">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="11">
         <v>2023</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="12">
         <v>23712</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="12">
         <v>2168</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="12">
         <v>18945</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="12">
         <v>449</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="15">
         <v>27428</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="15">
         <v>2230</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="15">
         <v>20021</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="12">
         <v>27013</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="12">
         <v>2300</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="12">
         <v>20000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="12">
         <v>474</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="15">
         <v>31023</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="15">
         <v>2342</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="15">
         <v>28982</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="15">
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="12">
         <v>28385</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="12">
         <v>2431</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="12">
         <v>24333</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="12">
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="15">
         <v>25003</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="15">
         <v>2254</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="15">
         <v>22228</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="15">
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="12">
         <v>24126</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="12">
         <v>3537</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="12">
         <v>20706</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="12">
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="15">
         <v>17034</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="15">
         <v>3155</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="15">
         <v>23980</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="15">
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="12">
         <v>22096</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="12">
         <v>4765</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="12">
         <v>25002</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="12">
         <v>503</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="15">
         <v>20006</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="15">
         <v>4402</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="15">
         <v>19178</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G27" s="15">
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="16">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="17">
         <v>21056</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="17">
         <v>4233</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="17">
         <v>14539</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="17">
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="19">
         <v>13761</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="19">
         <v>3014</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="19">
         <v>10511</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="19">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="11">
         <v>2022</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="12">
         <v>12734</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="12">
         <v>2867</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="12">
         <v>1312</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="12">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="15">
         <v>17318</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="15">
         <v>3869</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F31" s="15">
         <v>9874</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G31" s="15">
         <v>391</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="12">
         <v>21128</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="12">
         <v>4332</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="12">
         <v>17447</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="12">
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="15">
         <v>29334</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="15">
         <v>5646</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="15">
         <v>21803</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G33" s="15">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="12">
         <v>10132</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="12">
         <v>1987</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="12">
         <v>19216</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="12">
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="15">
         <v>23417</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="15">
         <v>4727</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F35" s="15">
         <v>18976</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G35" s="15">
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="12">
         <v>23723</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="12">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="12">
         <v>19105</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="12">
         <v>515</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="15">
         <v>23639</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="15">
         <v>4652</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F37" s="15">
         <v>19838</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G37" s="15">
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="12">
         <v>33607</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="12">
         <v>5153</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="12">
         <v>15285</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="12">
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D39" s="15">
         <v>32929</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="15">
         <v>4304</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F39" s="15">
         <v>9793</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G39" s="15">
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="16">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="17">
         <v>38415</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="17">
         <v>4114</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="17">
         <v>6064</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="17">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="19">
         <v>37398</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="19">
         <v>4763</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="19">
         <v>11530</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="19">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="11">
         <v>2021</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="12">
         <v>42491</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="12">
         <v>6372</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="12">
         <v>14360</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="12">
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="15">
         <v>44633</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="15">
         <v>6341</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F43" s="15">
         <v>13013</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G43" s="15">
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="12">
         <v>36362</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="12">
         <v>5059</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="12">
         <v>9812</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="12">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="10">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="15">
         <v>38930</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="15">
         <v>5692</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F45" s="15">
         <v>13620</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G45" s="15">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="12">
         <v>38527</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="12">
         <v>4777</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="12">
         <v>8801</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="12">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="10">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D47" s="15">
         <v>31574</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="15">
         <v>4170</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F47" s="15">
         <v>11639</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G47" s="15">
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="11">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="12">
         <v>20882</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="12">
         <v>4171</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="12">
         <v>9989</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="12">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="10">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="15">
         <v>14823</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="15">
         <v>3009</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="15">
         <v>10956</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G49" s="15">
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="11">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="12">
         <v>15036</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="12">
         <v>3689</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="12">
         <v>10676</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="12">
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D51" s="15">
         <v>9491</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="15">
         <v>1331</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F51" s="15">
         <v>8444</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G51" s="15">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="16">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D52" s="17">
         <v>7242</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="17">
         <v>1008</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="17">
         <v>4857</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="17">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="19">
         <v>6302</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="19">
         <v>1143</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F53" s="19">
         <v>5394</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="19">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="11">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="11">
         <v>2020</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="12">
         <v>7308</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="12">
         <v>1210</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="12">
         <v>7405</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="12">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="10">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D55" s="15">
         <v>7955</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="15">
         <v>1236</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="15">
         <v>7888</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G55" s="15">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="11">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="12">
         <v>6146</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="12">
         <v>748</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="12">
         <v>6869</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="10">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D57" s="15">
         <v>1848</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="15">
         <v>396</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F57" s="15">
         <v>5235</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G57" s="15">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="11">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58" s="12">
         <v>2211</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="12">
         <v>580</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="12">
         <v>1076</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="10">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D59" s="15">
         <v>4370</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="15">
         <v>1083</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F59" s="15">
         <v>1354</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G59" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="11">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="12">
         <v>3314</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="12">
         <v>873</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="12">
         <v>1395</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="10">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="15">
         <v>1829</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="15">
         <v>439</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="15">
         <v>2495</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G61" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="11">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D62" s="12">
         <v>13662</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="12">
         <v>3505</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="12">
         <v>9281</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G62" s="12">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D63" s="15">
         <v>15545</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E63" s="15">
         <v>3625</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F63" s="15">
         <v>12562</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G63" s="15">
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="16">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D64" s="17">
         <v>14810</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="17">
         <v>2699</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="17">
         <v>9652</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="17">
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="19">
         <v>7490</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="19">
         <v>1315</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F65" s="19">
         <v>10064</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="19">
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="11">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="11">
         <v>2019</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="12">
         <v>10074</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="12">
         <v>1923</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="12">
         <v>14022</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G66" s="12">
         <v>379</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="10">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="15">
         <v>12029</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="15">
         <v>2021</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="15">
         <v>15179</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G67" s="15">
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="11">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="12">
         <v>10754</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="12">
         <v>1643</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F68" s="12">
         <v>13758</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G68" s="12">
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="10">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="15">
         <v>11512</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="15">
         <v>2015</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="15">
         <v>18110</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G69" s="15">
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="11">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="12">
         <v>15714</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="12">
         <v>2716</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="12">
         <v>18270</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G70" s="12">
         <v>348</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="10">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="15">
         <v>16270</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="15">
         <v>2950</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="15">
         <v>15350</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G71" s="15">
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="11">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="12">
         <v>16437</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="12">
         <v>2805</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F72" s="12">
         <v>16430</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G72" s="12">
         <v>399</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="10">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D73" s="15">
         <v>14481</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="15">
         <v>2612</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F73" s="15">
         <v>15120</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G73" s="15">
         <v>345</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="11">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D74" s="12">
         <v>17161</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="12">
         <v>2871</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="12">
         <v>15354</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G74" s="12">
         <v>374</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="15">
         <v>17075</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E75" s="15">
         <v>2783</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F75" s="15">
         <v>21645</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G75" s="15">
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="16">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D76" s="17">
         <v>20238</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="17">
         <v>2855</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="17">
         <v>10553</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="17">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="10">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="15">
         <v>9263</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E77" s="15">
         <v>1691</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F77" s="15">
         <v>9658</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G77" s="15">
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="11">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="11">
         <v>2018</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="12">
         <v>14259</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E78" s="12">
         <v>2518</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="12">
         <v>13039</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G78" s="12">
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="10">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D79" s="15">
         <v>17136</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="15">
         <v>2824</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F79" s="15">
         <v>16026</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G79" s="15">
         <v>472</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="11">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D80" s="12">
         <v>15322</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E80" s="12">
         <v>2322</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="12">
         <v>17633</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G80" s="12">
         <v>371</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D81" s="15">
         <v>17146</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="15">
         <v>2633</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F81" s="15">
         <v>22408</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G81" s="15">
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="11">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D82" s="12">
         <v>17906</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E82" s="12">
         <v>2583</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="12">
         <v>20124</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G82" s="12">
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="10">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="15">
         <v>16106</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="15">
         <v>2362</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="15">
         <v>15900</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G83" s="15">
         <v>397</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="11">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D84" s="12">
         <v>16765</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E84" s="12">
         <v>2628</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="12">
         <v>17165</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G84" s="12">
         <v>453</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D85" s="15">
         <v>15305</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="15">
         <v>2604</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="15">
         <v>19584</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G85" s="15">
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="11">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D86" s="12">
         <v>14295</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E86" s="12">
         <v>2641</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F86" s="12">
         <v>15798</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G86" s="12">
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="14">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D87" s="15">
         <v>12834</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="15">
         <v>2298</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F87" s="15">
         <v>14963</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G87" s="15">
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="11">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="12">
         <v>14378</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E88" s="12">
         <v>2641</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F88" s="12">
         <v>11312</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G88" s="12">
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B89" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="2"/>
+      <c r="G90" s="21"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G91" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F4875-8179-4051-873B-A23CC917015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F437D40-81A0-41D2-95D6-54F3C1F665AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -280,12 +280,6 @@
     <xf numFmtId="17" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -323,61 +317,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -484,6 +435,55 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -498,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B5:G88" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G89" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -507,12 +507,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7058EC5-920C-42DD-BC78-4C9F0959DA70}" name="Año" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{820B2BF1-CA84-44B7-A0A4-61D9C5A02C3C}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0E330944-7C2C-4F68-B1D6-3ECEEC6D8EBD}" name="Carga " dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AAD39C57-1D5E-4A74-8193-F218D9A82D51}" name="Pasaje" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{055E7596-F4F6-47CD-A63F-090C49DE8191}" name="Verificaciones " dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FC4FC501-C5A0-4E9D-942C-76456C2F7E0F}" name="Inspecciones" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A7058EC5-920C-42DD-BC78-4C9F0959DA70}" name="Año" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{820B2BF1-CA84-44B7-A0A4-61D9C5A02C3C}" name="Mes" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0E330944-7C2C-4F68-B1D6-3ECEEC6D8EBD}" name="Carga " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AAD39C57-1D5E-4A74-8193-F218D9A82D51}" name="Pasaje" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{055E7596-F4F6-47CD-A63F-090C49DE8191}" name="Verificaciones " dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{FC4FC501-C5A0-4E9D-942C-76456C2F7E0F}" name="Inspecciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I91"/>
+  <dimension ref="B2:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -770,1710 +770,1730 @@
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
+        <v>8137</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="13">
+        <v>17664</v>
+      </c>
+      <c r="G6" s="13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="10">
         <v>9121</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="10">
         <v>1662</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="11">
         <v>18356</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="11">
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="14">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="13">
         <v>10095</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="13">
         <v>1837</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="13">
         <v>18950</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G8" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="10">
         <v>9675</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="10">
         <v>1716</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="11">
         <v>17339</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="14">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15">
-        <v>11607</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2091</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="D10" s="13">
+        <v>11510</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2064</v>
+      </c>
+      <c r="F10" s="13">
         <v>24464</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="13">
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12">
-        <v>11902</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2030</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D11" s="10">
+        <v>11706</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1974</v>
+      </c>
+      <c r="F11" s="10">
         <v>21401</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="10">
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15">
-        <v>12046</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1780</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="D12" s="13">
+        <v>11842</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1709</v>
+      </c>
+      <c r="F12" s="13">
         <v>18885</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="13">
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="12">
-        <v>13950</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2035</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="D13" s="10">
+        <v>13559</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1976</v>
+      </c>
+      <c r="F13" s="10">
         <v>19876</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="10">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="14">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="15">
-        <v>16416</v>
-      </c>
-      <c r="E13" s="15">
-        <v>2293</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="D14" s="13">
+        <v>16012</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2209</v>
+      </c>
+      <c r="F14" s="13">
         <v>18546</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="13">
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12">
-        <v>16959</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2327</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="D15" s="10">
+        <v>16464</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2217</v>
+      </c>
+      <c r="F15" s="10">
         <v>16265</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="10">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="15">
-        <v>21105</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2904</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="D16" s="13">
+        <v>20634</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2794</v>
+      </c>
+      <c r="F16" s="13">
         <v>14445</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="16">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="17">
-        <v>23283</v>
-      </c>
-      <c r="E16" s="17">
-        <v>2461</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="D17" s="15">
+        <v>22641</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2385</v>
+      </c>
+      <c r="F17" s="15">
         <v>16476</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="16">
         <v>2023</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D18" s="17">
         <v>18808</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="17">
         <v>1903</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F18" s="17">
         <v>14641</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G18" s="17">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="10">
         <v>23712</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="10">
         <v>2168</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="10">
         <v>18945</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="10">
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="13">
         <v>27428</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="13">
         <v>2230</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="13">
         <v>20021</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="10">
         <v>27013</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="10">
         <v>2300</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="10">
         <v>20000</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="10">
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="13">
         <v>31023</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="13">
         <v>2342</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="13">
         <v>28982</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="10">
         <v>28385</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="10">
         <v>2431</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="10">
         <v>24333</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="14">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="13">
         <v>25003</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="13">
         <v>2254</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="13">
         <v>22228</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="13">
         <v>498</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="10">
         <v>24126</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="10">
         <v>3537</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="10">
         <v>20706</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="10">
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="14">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="13">
         <v>17034</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="13">
         <v>3155</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F26" s="13">
         <v>23980</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="10">
         <v>22096</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="10">
         <v>4765</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="10">
         <v>25002</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="10">
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="13">
         <v>20006</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="13">
         <v>4402</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="13">
         <v>19178</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G28" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="16">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="15">
         <v>21056</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="15">
         <v>4233</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="15">
         <v>14539</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="16">
         <v>2022</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="17">
         <v>13761</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="17">
         <v>3014</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="17">
         <v>10511</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G30" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="11">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="10">
         <v>12734</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="10">
         <v>2867</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="10">
         <v>1312</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="14">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="13">
         <v>17318</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="13">
         <v>3869</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="13">
         <v>9874</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="10">
         <v>21128</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="10">
         <v>4332</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="10">
         <v>17447</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="10">
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="14">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="13">
         <v>29334</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="13">
         <v>5646</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="13">
         <v>21803</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="10">
         <v>10132</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="10">
         <v>1987</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="10">
         <v>19216</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="10">
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="14">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="13">
         <v>23417</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="13">
         <v>4727</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="13">
         <v>18976</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="10">
         <v>23723</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="10">
         <v>4600</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="10">
         <v>19105</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="14">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="13">
         <v>23639</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="13">
         <v>4652</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="13">
         <v>19838</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="10">
         <v>33607</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="10">
         <v>5153</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="10">
         <v>15285</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="10">
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="14">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="13">
         <v>32929</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="13">
         <v>4304</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="13">
         <v>9793</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G40" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="16">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="15">
         <v>38415</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="15">
         <v>4114</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="15">
         <v>6064</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="16">
         <v>2021</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D42" s="17">
         <v>37398</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="17">
         <v>4763</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="17">
         <v>11530</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="17">
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="11">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="10">
         <v>42491</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="10">
         <v>6372</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F43" s="10">
         <v>14360</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="10">
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="14">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="13">
         <v>44633</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="13">
         <v>6341</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="13">
         <v>13013</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G44" s="13">
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="10">
         <v>36362</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="10">
         <v>5059</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="10">
         <v>9812</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="10">
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="14">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="13">
         <v>38930</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="13">
         <v>5692</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="13">
         <v>13620</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="13">
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="10">
         <v>38527</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="10">
         <v>4777</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="10">
         <v>8801</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="14">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="13">
         <v>31574</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="13">
         <v>4170</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="13">
         <v>11639</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G48" s="13">
         <v>261</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="10">
         <v>20882</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="10">
         <v>4171</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="10">
         <v>9989</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="14">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="13">
         <v>14823</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="13">
         <v>3009</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="13">
         <v>10956</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="10">
         <v>15036</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="10">
         <v>3689</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="10">
         <v>10676</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="10">
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="14">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="13">
         <v>9491</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="13">
         <v>1331</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="13">
         <v>8444</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G52" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="16">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="15">
         <v>7242</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="15">
         <v>1008</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="15">
         <v>4857</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="16">
         <v>2020</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D54" s="17">
         <v>6302</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="17">
         <v>1143</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="17">
         <v>5394</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="17">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="11">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="10">
         <v>7308</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="10">
         <v>1210</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F55" s="10">
         <v>7405</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="14">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="13">
         <v>7955</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="13">
         <v>1236</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="13">
         <v>7888</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G56" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="10">
         <v>6146</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="10">
         <v>748</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="10">
         <v>6869</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="14">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="13">
         <v>1848</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="13">
         <v>396</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="13">
         <v>5235</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="10">
         <v>2211</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="10">
         <v>580</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="10">
         <v>1076</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="14">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="13">
         <v>4370</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="13">
         <v>1083</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="13">
         <v>1354</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G60" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="10">
         <v>3314</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="10">
         <v>873</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="10">
         <v>1395</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="14">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="13">
         <v>1829</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="13">
         <v>439</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="13">
         <v>2495</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G62" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="10">
         <v>13662</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="10">
         <v>3505</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="10">
         <v>9281</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="14">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="13">
         <v>15545</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="13">
         <v>3625</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="13">
         <v>12562</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G64" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="16">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="15">
         <v>14810</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="15">
         <v>2699</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="15">
         <v>9652</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="16">
         <v>2019</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="17">
         <v>7490</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="17">
         <v>1315</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="17">
         <v>10064</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="17">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="11">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="10">
         <v>10074</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="10">
         <v>1923</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F67" s="10">
         <v>14022</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="10">
         <v>379</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="14">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="13">
         <v>12029</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="13">
         <v>2021</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="13">
         <v>15179</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G68" s="13">
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="10">
         <v>10754</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="10">
         <v>1643</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="10">
         <v>13758</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="10">
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="14">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="13">
         <v>11512</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="13">
         <v>2015</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="13">
         <v>18110</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="10">
         <v>15714</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="10">
         <v>2716</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="10">
         <v>18270</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="14">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="13">
         <v>16270</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="13">
         <v>2950</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="13">
         <v>15350</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G72" s="13">
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="10">
         <v>16437</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="10">
         <v>2805</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="10">
         <v>16430</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="10">
         <v>399</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="14">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="13">
         <v>14481</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="13">
         <v>2612</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="13">
         <v>15120</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G74" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="10">
         <v>17161</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="10">
         <v>2871</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="10">
         <v>15354</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="10">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="14">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="13">
         <v>17075</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="13">
         <v>2783</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="13">
         <v>21645</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G76" s="13">
         <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="17">
-        <v>20238</v>
-      </c>
-      <c r="E76" s="17">
-        <v>2855</v>
-      </c>
-      <c r="F76" s="17">
-        <v>10553</v>
-      </c>
-      <c r="G76" s="17">
-        <v>215</v>
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="15">
+        <v>20238</v>
+      </c>
+      <c r="E77" s="15">
+        <v>2855</v>
+      </c>
+      <c r="F77" s="15">
+        <v>10553</v>
+      </c>
+      <c r="G77" s="15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="12">
         <v>2018</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="13">
         <v>9263</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="13">
         <v>1691</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="13">
         <v>9658</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G78" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="9">
         <v>2018</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="10">
         <v>14259</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="10">
         <v>2518</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F79" s="10">
         <v>13039</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="10">
         <v>434</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="14">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="13">
         <v>17136</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="13">
         <v>2824</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="13">
         <v>16026</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G80" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="10">
         <v>15322</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="10">
         <v>2322</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="10">
         <v>17633</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="10">
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="14">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="13">
         <v>17146</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="13">
         <v>2633</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="13">
         <v>22408</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G82" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="10">
         <v>17906</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="10">
         <v>2583</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="10">
         <v>20124</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="14">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="13">
         <v>16106</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="13">
         <v>2362</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="13">
         <v>15900</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G84" s="13">
         <v>397</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="10">
         <v>16765</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="10">
         <v>2628</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="10">
         <v>17165</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="14">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="13">
         <v>15305</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="13">
         <v>2604</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="13">
         <v>19584</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G86" s="13">
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="10">
         <v>14295</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="10">
         <v>2641</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="10">
         <v>15798</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="10">
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="14">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D88" s="13">
         <v>12834</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="13">
         <v>2298</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="13">
         <v>14963</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G88" s="13">
         <v>420</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="10">
         <v>14378</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="10">
         <v>2641</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="10">
         <v>11312</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B89" s="20" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B90" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="21"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G91" s="21"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G92" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F437D40-81A0-41D2-95D6-54F3C1F665AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1758D89-B8F1-4027-AB65-26C85EC9A5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -267,12 +267,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +333,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -417,13 +435,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -447,6 +458,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -498,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G89" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B5:G90" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -741,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I92"/>
+  <dimension ref="B2:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -802,1698 +820,1718 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
+      <c r="B6" s="22">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="23">
+        <v>12153</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1790</v>
+      </c>
+      <c r="F6" s="24">
+        <v>13650</v>
+      </c>
+      <c r="G6" s="24">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>8137</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>1400</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>17664</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>9121</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>1662</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>18356</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="12">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>10095</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>1837</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>18950</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>9675</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>1716</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>17339</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="12">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13">
-        <v>11510</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2064</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="D11" s="13">
+        <v>11607</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2091</v>
+      </c>
+      <c r="F11" s="13">
         <v>24464</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10">
-        <v>11706</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1974</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="D12" s="10">
+        <v>11902</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2030</v>
+      </c>
+      <c r="F12" s="10">
         <v>21401</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="12">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13">
-        <v>11842</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1709</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="D13" s="13">
+        <v>12046</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1780</v>
+      </c>
+      <c r="F13" s="13">
         <v>18885</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10">
-        <v>13559</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1976</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D14" s="10">
+        <v>13950</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2035</v>
+      </c>
+      <c r="F14" s="10">
         <v>19876</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="12">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13">
-        <v>16012</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2209</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="D15" s="13">
+        <v>16416</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2293</v>
+      </c>
+      <c r="F15" s="13">
         <v>18546</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="10">
-        <v>16464</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2217</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D16" s="10">
+        <v>16959</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2327</v>
+      </c>
+      <c r="F16" s="10">
         <v>16265</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>20634</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>2794</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>14445</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="14">
         <v>2024</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="15">
         <v>22641</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>2385</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="15">
         <v>16476</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G18" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="16">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="16">
         <v>2023</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <v>18808</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>1903</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>14641</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G19" s="17">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>23712</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>2168</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>18945</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>27428</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>2230</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>20021</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>27013</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>2300</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>20000</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>474</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>31023</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>2342</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>28982</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>28385</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>2431</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>24333</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>25003</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>2254</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>22228</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>24126</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>3537</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>20706</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>17034</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>3155</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>23980</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="9">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>22096</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>4765</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>25002</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>20006</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>4402</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>19178</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="14">
         <v>2023</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="15">
         <v>21056</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>4233</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <v>14539</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G30" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="16">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="16">
         <v>2022</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <v>13761</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>3014</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>10511</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G31" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>12734</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>2867</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>1312</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>17318</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>3869</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>9874</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>21128</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>4332</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>17447</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>29334</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>5646</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>21803</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>10132</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>1987</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>19216</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>422</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>23417</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>4727</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>18976</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>23723</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>4600</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>19105</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>23639</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>4652</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>19838</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="9">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>33607</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>5153</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>15285</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>32929</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>4304</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>9793</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="14">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="14">
         <v>2022</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="15">
         <v>38415</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>4114</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>6064</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G42" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="16">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="16">
         <v>2021</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>37398</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>4763</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>11530</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="17">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>42491</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>6372</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>14360</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>44633</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>6341</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>13013</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>36362</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>5059</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>9812</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>38930</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>5692</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>13620</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>38527</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>4777</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>8801</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>31574</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>4170</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>11639</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>20882</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>4171</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>9989</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>14823</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>3009</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>10956</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="9">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <v>15036</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <v>3689</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>10676</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>9491</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>1331</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>8444</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="14">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="14">
         <v>2021</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="15">
         <v>7242</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>1008</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>4857</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G54" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="16">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="16">
         <v>2020</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <v>6302</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>1143</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>5394</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G55" s="17">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>7308</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>1210</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>7405</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>7955</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>1236</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>7888</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <v>6146</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E58" s="10">
         <v>748</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>6869</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>1848</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>396</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>5235</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="9">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>2211</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>580</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>1076</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>4370</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>1083</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>1354</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="9">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>3314</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>873</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>1395</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>1829</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>439</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>2495</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="9">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>13662</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>3505</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>9281</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>15545</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>3625</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>12562</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="14">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="14">
         <v>2020</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="15">
         <v>14810</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>2699</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>9652</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G66" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="16">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="16">
         <v>2019</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="17">
         <v>7490</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>1315</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>10064</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G67" s="17">
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>10074</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>1923</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>14022</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>12029</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>2021</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>15179</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>10754</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>1643</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>13758</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>11512</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>2015</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>18110</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>15714</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>2716</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>18270</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <v>16270</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>2950</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>15350</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="9">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>16437</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>2805</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>16430</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>399</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>14481</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>2612</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>15120</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="9">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>17161</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>2871</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>15354</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>17075</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>2783</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>21645</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="14">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="14">
         <v>2019</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="15">
         <v>20238</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>2855</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>10553</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G78" s="15">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="12">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>9263</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>1691</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>9658</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="9">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="9">
         <v>2018</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>14259</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>2518</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>13039</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>434</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="12">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <v>17136</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>2824</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>16026</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="9">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>15322</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>2322</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>17633</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="12">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>17146</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>2633</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>22408</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="9">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>17906</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>2583</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>20124</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="12">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <v>16106</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>2362</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>15900</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>397</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="9">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>16765</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>2628</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>17165</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="12">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <v>15305</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>2604</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>19584</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="9">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>14295</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>2641</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>15798</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="12">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <v>12834</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>2298</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>14963</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>420</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="9">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>14378</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E90" s="10">
         <v>2641</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>11312</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B90" s="18" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B91" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G93" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1758D89-B8F1-4027-AB65-26C85EC9A5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6CE65F-6C15-4973-8D99-C22032BE2A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -267,23 +267,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,11 +323,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -434,6 +419,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -458,13 +450,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -516,8 +501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B5:G90" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G91" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -759,13 +744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I93"/>
+  <dimension ref="B2:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
@@ -776,16 +761,16 @@
     <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9">
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20" t="s">
@@ -799,7 +784,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -819,1719 +804,1739 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="22">
+    <row r="6" spans="2:9">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13">
+        <v>11976</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2199</v>
+      </c>
+      <c r="F6" s="13">
+        <v>17325</v>
+      </c>
+      <c r="G6" s="13">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D7" s="15">
         <v>12153</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E7" s="15">
         <v>1790</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F7" s="22">
         <v>13650</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G7" s="22">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
+    <row r="8" spans="2:9">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>8137</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>1400</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>17664</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>9121</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>1662</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>18356</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
+    <row r="10" spans="2:9">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>10095</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>1837</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>18950</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:9">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>9675</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>1716</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>17339</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
+    <row r="12" spans="2:9">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>11607</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>2091</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>24464</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:9">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>11902</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>2030</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>21401</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G13" s="10">
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="12">
+    <row r="14" spans="2:9">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>12046</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>1780</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>18885</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:9">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>13950</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>2035</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>19876</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+    <row r="16" spans="2:9">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>16416</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>2293</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>18546</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:7">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>16959</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>2327</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>16265</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+    <row r="18" spans="2:7">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>20634</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>2794</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>14445</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+    <row r="19" spans="2:7">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <v>22641</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>2385</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>16476</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="16">
         <v>2023</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>18808</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>1903</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>14641</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>23712</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>2168</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>18945</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>449</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>27428</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>2230</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>20021</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>27013</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>2300</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>20000</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>31023</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>2342</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>28982</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>28385</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>2431</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>24333</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="12">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>25003</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>2254</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>22228</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>24126</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>3537</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>20706</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>501</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>17034</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>3155</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>23980</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>22096</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>4765</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>25002</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>20006</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>4402</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>19178</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <v>21056</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>4233</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>14539</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="16">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="16">
         <v>2022</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <v>13761</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>3014</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>10511</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>12734</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>2867</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>1312</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>17318</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>3869</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>9874</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>21128</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>4332</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>17447</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>29334</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>5646</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>21803</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>10132</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>1987</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>19216</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>23417</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>4727</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>18976</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <v>23723</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <v>4600</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>19105</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>23639</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>4652</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>19838</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>33607</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>5153</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>15285</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>32929</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>4304</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>9793</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="14">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <v>38415</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>4114</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>6064</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="16">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="16">
         <v>2021</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <v>37398</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>4763</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>11530</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="17">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <v>42491</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>6372</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>14360</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>44633</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>6341</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>13013</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>36362</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>5059</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>9812</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>38930</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>5692</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>13620</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>38527</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>4777</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>8801</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="12">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>31574</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>4170</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>11639</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <v>20882</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <v>4171</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>9989</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>14823</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>3009</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>10956</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>15036</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <v>3689</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>10676</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>9491</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>1331</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>8444</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="14">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="15">
         <v>7242</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>1008</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>4857</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G55" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="16">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="16">
         <v>2020</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <v>6302</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>1143</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>5394</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <v>7308</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E57" s="10">
         <v>1210</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>7405</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>7955</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>1236</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>7888</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>6146</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>748</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>6869</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>1848</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>396</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>5235</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <v>2211</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>580</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>1076</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="12">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>4370</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>1083</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>1354</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>3314</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>873</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>1395</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>1829</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>439</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>2495</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="9">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>13662</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>3505</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>9281</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>15545</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>3625</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>12562</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="14">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="15">
         <v>14810</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>2699</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>9652</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G67" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="16">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="16">
         <v>2019</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <v>7490</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>1315</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>10064</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>10074</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>1923</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>14022</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>379</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>12029</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>2021</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>15179</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>10754</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>1643</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>13758</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>11512</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>2015</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>18110</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>15714</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>2716</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>18270</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="12">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>16270</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>2950</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>15350</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>16437</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>2805</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>16430</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>14481</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>2612</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>15120</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>17161</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>2871</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>15354</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>374</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>17075</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>2783</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>21645</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="14">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="15">
         <v>20238</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>2855</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>10553</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G79" s="15">
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="12">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>9263</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>1691</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>9658</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="9">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>14259</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>2518</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>13039</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="12">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <v>17136</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>2824</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>16026</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="9">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>15322</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>2322</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>17633</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="12">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>17146</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>2633</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>22408</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="9">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>17906</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>2583</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>20124</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="12">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <v>16106</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>2362</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>15900</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="9">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <v>16765</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>2628</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>17165</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <v>15305</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>2604</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>19584</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="9">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>14295</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E89" s="10">
         <v>2641</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>15798</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="12">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <v>12834</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>2298</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>14963</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>420</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="9">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <v>14378</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E91" s="10">
         <v>2641</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <v>11312</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G91" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B91" s="18" t="s">
+    <row r="92" spans="2:7">
+      <c r="B92" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="2:7">
+      <c r="B93" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="G94" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6CE65F-6C15-4973-8D99-C22032BE2A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C121DB-FFA3-4027-950A-AED910001358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -317,14 +317,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,11 +501,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G91" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G92" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -744,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I94"/>
+  <dimension ref="B2:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -773,14 +774,14 @@
     <row r="4" spans="2:9">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
     </row>
@@ -805,1738 +806,1758 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10">
+        <v>14343</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2551</v>
+      </c>
+      <c r="F6" s="11">
+        <v>20076</v>
+      </c>
+      <c r="G6" s="11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <v>11976</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>2199</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>17325</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="14">
+    <row r="8" spans="2:9">
+      <c r="B8" s="14">
         <v>2025</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="15">
         <v>12153</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>1790</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F8" s="20">
         <v>13650</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G8" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="12">
+    <row r="9" spans="2:9">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>8137</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>1400</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>17664</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="9">
+    <row r="10" spans="2:9">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>9121</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>1662</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>18356</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>437</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="12">
+    <row r="11" spans="2:9">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>10095</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>1837</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>18950</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="9">
+    <row r="12" spans="2:9">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>9675</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>1716</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>17339</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="12">
+    <row r="13" spans="2:9">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13">
-        <v>11607</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2091</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="D13" s="13">
+        <v>11510</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2064</v>
+      </c>
+      <c r="F13" s="13">
         <v>24464</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="9">
+    <row r="14" spans="2:9">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10">
-        <v>11902</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2030</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D14" s="10">
+        <v>11706</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1974</v>
+      </c>
+      <c r="F14" s="10">
         <v>21401</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="12">
+    <row r="15" spans="2:9">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13">
-        <v>12046</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1780</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="D15" s="13">
+        <v>11842</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1709</v>
+      </c>
+      <c r="F15" s="13">
         <v>18885</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="9">
+    <row r="16" spans="2:9">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>13950</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>2035</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>19876</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="12">
+    <row r="17" spans="2:7">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>16416</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>2293</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>18546</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="9">
+    <row r="18" spans="2:7">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>16959</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>2327</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>16265</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="12">
+    <row r="19" spans="2:7">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13">
-        <v>20634</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2794</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="D19" s="13">
+        <v>21105</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2904</v>
+      </c>
+      <c r="F19" s="13">
         <v>14445</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="14">
+    <row r="20" spans="2:7">
+      <c r="B20" s="14">
         <v>2024</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="15">
-        <v>22641</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2385</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="D20" s="15">
+        <v>23283</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2461</v>
+      </c>
+      <c r="F20" s="15">
         <v>16476</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1">
-      <c r="B20" s="16">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="16">
         <v>2023</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <v>18808</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>1903</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>14641</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="9">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>23712</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>2168</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>18945</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="12">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>27428</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>2230</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>20021</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="9">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>27013</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>2300</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>20000</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="12">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>31023</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>2342</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>28982</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>28385</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>2431</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>24333</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>25003</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>2254</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>22228</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>24126</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>3537</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>20706</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>17034</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>3155</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>23980</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>22096</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>4765</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>25002</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>20006</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>4402</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>19178</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="14">
         <v>2023</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <v>21056</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>4233</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>14539</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="16">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="16">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <v>13761</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>3014</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>10511</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>12734</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>2867</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>1312</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>17318</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>3869</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>9874</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>21128</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>4332</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>17447</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="12">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>29334</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>5646</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>21803</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>10132</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>1987</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>19216</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>23417</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>4727</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>18976</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>23723</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>4600</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>19105</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>23639</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>4652</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>19838</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <v>33607</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>5153</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>15285</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>471</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>32929</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>4304</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>9793</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="14">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="14">
         <v>2022</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <v>38415</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>4114</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>6064</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G44" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="16">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="16">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <v>37398</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>4763</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>11530</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>42491</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>6372</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>14360</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>44633</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>6341</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>13013</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>36362</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>5059</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>9812</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="12">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>38930</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>5692</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>13620</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>38527</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>4777</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>8801</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>31574</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>4170</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>11639</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <v>20882</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <v>4171</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>9989</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>14823</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>3009</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>10956</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>15036</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E54" s="10">
         <v>3689</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>10676</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>9491</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>1331</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>8444</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="14">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="14">
         <v>2021</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <v>7242</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>1008</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>4857</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G56" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="16">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="16">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <v>6302</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>1143</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>5394</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <v>7308</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E58" s="10">
         <v>1210</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>7405</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>7955</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>1236</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>7888</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>6146</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>748</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>6869</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="12">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>1848</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>396</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>5235</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>2211</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>580</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>1076</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>4370</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>1083</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>1354</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>3314</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>873</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>1395</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>1829</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>439</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>2495</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>13662</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="10">
         <v>3505</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>9281</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>15545</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>3625</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>12562</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="14">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="14">
         <v>2020</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <v>14810</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>2699</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>9652</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G68" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="16">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="16">
         <v>2019</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="17">
         <v>7490</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>1315</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>10064</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>10074</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>1923</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>14022</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>12029</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>2021</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>15179</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>10754</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>1643</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>13758</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="12">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <v>11512</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>2015</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>18110</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>15714</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>2716</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>18270</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>16270</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>2950</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>15350</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>387</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>16437</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>2805</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>16430</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>14481</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>2612</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>15120</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>17161</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>2871</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>15354</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>17075</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>2783</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>21645</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="14">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="14">
         <v>2019</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="15">
         <v>20238</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>2855</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>10553</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G80" s="15">
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="12">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <v>9263</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>1691</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>9658</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>14259</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>2518</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>13039</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>17136</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>2824</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>16026</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="9">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>15322</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>2322</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>17633</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="12">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <v>17146</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>2633</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>22408</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="9">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>17906</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>2583</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>20124</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="12">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <v>16106</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>2362</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>15900</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>397</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="9">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>16765</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>2628</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>17165</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="12">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <v>15305</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>2604</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>19584</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>386</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="9">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>14295</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E90" s="10">
         <v>2641</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>15798</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="12">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <v>12834</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>2298</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>14963</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>420</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="9">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="9">
         <v>2018</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D92" s="10">
         <v>14378</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E92" s="10">
         <v>2641</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <v>11312</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G92" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="18" t="s">
+    <row r="93" spans="2:7">
+      <c r="B93" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="3" t="s">
+    <row r="94" spans="2:7">
+      <c r="B94" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:7">
       <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="G95" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C121DB-FFA3-4027-950A-AED910001358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C7DBE-E253-4FCE-B616-182CE37FC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G92" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G93" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G93" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -745,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I95"/>
+  <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -806,1758 +806,1778 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13">
+        <v>16324</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2622</v>
+      </c>
+      <c r="F6" s="13">
+        <v>23255</v>
+      </c>
+      <c r="G6" s="13">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>14343</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>2551</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>20076</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="12">
+    <row r="8" spans="2:9">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>11976</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>2199</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>17325</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="14">
+    <row r="9" spans="2:9">
+      <c r="B9" s="14">
         <v>2025</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D9" s="15">
         <v>12153</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="15">
         <v>1790</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F9" s="20">
         <v>13650</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G9" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="12">
+    <row r="10" spans="2:9">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>8137</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>1400</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>17664</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="9">
+    <row r="11" spans="2:9">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>9121</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>1662</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>18356</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="12">
+    <row r="12" spans="2:9">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>10095</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>1837</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>18950</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="9">
+    <row r="13" spans="2:9">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>9675</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>1716</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>17339</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="12">
+    <row r="14" spans="2:9">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>11510</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>2064</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>24464</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="9">
+    <row r="15" spans="2:9">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>11706</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>1974</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>21401</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="12">
+    <row r="16" spans="2:9">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>11842</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>1709</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>18885</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="9">
+    <row r="17" spans="2:7">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>13950</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>2035</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>19876</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="12">
+    <row r="18" spans="2:7">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>16416</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>2293</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>18546</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="9">
+    <row r="19" spans="2:7">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>16959</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>2327</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>16265</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="12">
+    <row r="20" spans="2:7">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>21105</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>2904</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>14445</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="14">
+    <row r="21" spans="2:7">
+      <c r="B21" s="14">
         <v>2024</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <v>23283</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>2461</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <v>16476</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="16">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="16">
         <v>2023</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <v>18808</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>1903</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>14641</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="9">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>23712</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>2168</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>18945</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>449</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="12">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>27428</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>2230</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>20021</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="9">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>27013</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>2300</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>20000</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>31023</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>2342</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>28982</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>28385</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>2431</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>24333</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>25003</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>2254</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>22228</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>24126</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>3537</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>20706</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>17034</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>3155</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>23980</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>22096</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>4765</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>25002</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>503</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>20006</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>4402</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>19178</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="14">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="14">
         <v>2023</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <v>21056</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>4233</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <v>14539</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="16">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="16">
         <v>2022</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <v>13761</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>3014</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>10511</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>12734</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>2867</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>1312</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>17318</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>3869</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>9874</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="9">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>21128</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>4332</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>17447</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>29334</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>5646</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>21803</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <v>10132</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <v>1987</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>19216</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>422</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>23417</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>4727</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>18976</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>23723</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>4600</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>19105</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>23639</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>4652</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>19838</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>33607</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>5153</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>15285</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>471</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>32929</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>4304</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>9793</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="14">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="14">
         <v>2022</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <v>38415</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>4114</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>6064</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G45" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="16">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="16">
         <v>2021</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>37398</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>4763</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>11530</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="17">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>42491</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>6372</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>14360</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>44633</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>6341</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>13013</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="9">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>36362</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>5059</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>9812</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>319</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="12">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>38930</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>5692</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>13620</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <v>38527</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <v>4777</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>8801</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>31574</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>4170</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>11639</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>20882</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <v>4171</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>9989</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>14823</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>3009</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>10956</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>15036</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>3689</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>10676</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>9491</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>1331</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>8444</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="14">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="14">
         <v>2021</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <v>7242</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="15">
         <v>1008</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="15">
         <v>4857</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G57" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="16">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="16">
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="17">
         <v>6302</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>1143</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>5394</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="17">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>7308</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>1210</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>7405</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>7955</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>1236</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>7888</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="9">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <v>6146</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>748</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>6869</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="12">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>1848</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>396</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>5235</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>2211</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>580</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>1076</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>4370</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>1083</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>1354</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>3314</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>873</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>1395</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>1829</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>439</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>2495</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>13662</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>3505</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>9281</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>15545</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>3625</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>12562</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="14">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="14">
         <v>2020</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <v>14810</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>2699</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>9652</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G69" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="16">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="16">
         <v>2019</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D70" s="17">
         <v>7490</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>1315</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>10064</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G70" s="17">
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>10074</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>1923</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>14022</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>12029</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>2021</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>15179</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="9">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>10754</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>1643</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>13758</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="12">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>11512</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>2015</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>18110</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>15714</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>2716</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>18270</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>16270</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>2950</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>15350</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>16437</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>2805</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>16430</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>14481</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>2612</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>15120</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>17161</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>2871</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>15354</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>17075</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>2783</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>21645</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="14">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="14">
         <v>2019</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="15">
         <v>20238</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>2855</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>10553</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G81" s="15">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <v>9263</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>1691</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>9658</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>14259</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>2518</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>13039</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>17136</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>2824</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>16026</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="9">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>15322</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>2322</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>17633</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <v>17146</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>2633</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>22408</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="9">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <v>17906</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>2583</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>20124</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <v>16106</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>2362</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>15900</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>397</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="9">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>16765</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E89" s="10">
         <v>2628</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>17165</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <v>15305</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>2604</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>19584</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="9">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <v>14295</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E91" s="10">
         <v>2641</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <v>15798</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G91" s="10">
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="12">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D92" s="13">
         <v>12834</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>2298</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>14963</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="9">
+    <row r="93" spans="2:7" hidden="1">
+      <c r="B93" s="9">
         <v>2018</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D93" s="10">
         <v>14378</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E93" s="10">
         <v>2641</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F93" s="10">
         <v>11312</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G93" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="18" t="s">
+    <row r="94" spans="2:7">
+      <c r="B94" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="3" t="s">
+    <row r="95" spans="2:7">
+      <c r="B95" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="2:7">
       <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="G96" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C7DBE-E253-4FCE-B616-182CE37FC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD158A5-88FE-4ACD-BD1B-A51BFAA688A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G93" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G93" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G95" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -745,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I96"/>
+  <dimension ref="B2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -810,19 +810,19 @@
         <v>2025</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="13">
-        <v>16324</v>
+        <v>24802</v>
       </c>
       <c r="E6" s="13">
-        <v>2622</v>
+        <v>3584</v>
       </c>
       <c r="F6" s="13">
-        <v>23255</v>
+        <v>16115</v>
       </c>
       <c r="G6" s="13">
-        <v>430</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -830,19 +830,19 @@
         <v>2025</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10">
-        <v>14343</v>
+        <v>21530</v>
       </c>
       <c r="E7" s="10">
-        <v>2551</v>
+        <v>2951</v>
       </c>
       <c r="F7" s="11">
-        <v>20076</v>
+        <v>19275</v>
       </c>
       <c r="G7" s="11">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -850,79 +850,79 @@
         <v>2025</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13">
-        <v>11976</v>
+        <v>16324</v>
       </c>
       <c r="E8" s="13">
-        <v>2199</v>
+        <v>2622</v>
       </c>
       <c r="F8" s="13">
-        <v>17325</v>
+        <v>23255</v>
       </c>
       <c r="G8" s="13">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15">
-        <v>12153</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1790</v>
-      </c>
-      <c r="F9" s="20">
-        <v>13650</v>
-      </c>
-      <c r="G9" s="20">
-        <v>201</v>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10">
+        <v>14343</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2551</v>
+      </c>
+      <c r="F9" s="11">
+        <v>20076</v>
+      </c>
+      <c r="G9" s="11">
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="12">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="13">
-        <v>8137</v>
+        <v>11976</v>
       </c>
       <c r="E10" s="13">
-        <v>1400</v>
+        <v>2199</v>
       </c>
       <c r="F10" s="13">
-        <v>17664</v>
+        <v>17325</v>
       </c>
       <c r="G10" s="13">
-        <v>220</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10">
-        <v>9121</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1662</v>
-      </c>
-      <c r="F11" s="11">
-        <v>18356</v>
-      </c>
-      <c r="G11" s="11">
-        <v>437</v>
+      <c r="B11" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15">
+        <v>12153</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1790</v>
+      </c>
+      <c r="F11" s="20">
+        <v>13650</v>
+      </c>
+      <c r="G11" s="20">
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -930,19 +930,19 @@
         <v>2024</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13">
-        <v>10095</v>
+        <v>8137</v>
       </c>
       <c r="E12" s="13">
-        <v>1837</v>
+        <v>1400</v>
       </c>
       <c r="F12" s="13">
-        <v>18950</v>
+        <v>17664</v>
       </c>
       <c r="G12" s="13">
-        <v>447</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -950,19 +950,19 @@
         <v>2024</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10">
-        <v>9675</v>
+        <v>9121</v>
       </c>
       <c r="E13" s="10">
-        <v>1716</v>
+        <v>1662</v>
       </c>
       <c r="F13" s="11">
-        <v>17339</v>
+        <v>18356</v>
       </c>
       <c r="G13" s="11">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -970,19 +970,19 @@
         <v>2024</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13">
-        <v>11510</v>
+        <v>10095</v>
       </c>
       <c r="E14" s="13">
-        <v>2064</v>
+        <v>1837</v>
       </c>
       <c r="F14" s="13">
-        <v>24464</v>
+        <v>18950</v>
       </c>
       <c r="G14" s="13">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -990,19 +990,19 @@
         <v>2024</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="10">
-        <v>11706</v>
+        <v>9675</v>
       </c>
       <c r="E15" s="10">
-        <v>1974</v>
-      </c>
-      <c r="F15" s="10">
-        <v>21401</v>
-      </c>
-      <c r="G15" s="10">
-        <v>494</v>
+        <v>1716</v>
+      </c>
+      <c r="F15" s="11">
+        <v>17339</v>
+      </c>
+      <c r="G15" s="11">
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1010,19 +1010,19 @@
         <v>2024</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="13">
-        <v>11842</v>
+        <v>11510</v>
       </c>
       <c r="E16" s="13">
-        <v>1709</v>
+        <v>2064</v>
       </c>
       <c r="F16" s="13">
-        <v>18885</v>
+        <v>24464</v>
       </c>
       <c r="G16" s="13">
-        <v>489</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1030,19 +1030,19 @@
         <v>2024</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="10">
-        <v>13950</v>
+        <v>11706</v>
       </c>
       <c r="E17" s="10">
-        <v>2035</v>
+        <v>1974</v>
       </c>
       <c r="F17" s="10">
-        <v>19876</v>
+        <v>21401</v>
       </c>
       <c r="G17" s="10">
-        <v>457</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1050,19 +1050,19 @@
         <v>2024</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="13">
-        <v>16416</v>
+        <v>11842</v>
       </c>
       <c r="E18" s="13">
-        <v>2293</v>
+        <v>1709</v>
       </c>
       <c r="F18" s="13">
-        <v>18546</v>
+        <v>18885</v>
       </c>
       <c r="G18" s="13">
-        <v>383</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -1070,19 +1070,19 @@
         <v>2024</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="10">
-        <v>16959</v>
+        <v>13950</v>
       </c>
       <c r="E19" s="10">
-        <v>2327</v>
+        <v>2035</v>
       </c>
       <c r="F19" s="10">
-        <v>16265</v>
+        <v>19876</v>
       </c>
       <c r="G19" s="10">
-        <v>338</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1090,99 +1090,99 @@
         <v>2024</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="13">
+        <v>16416</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2293</v>
+      </c>
+      <c r="F20" s="13">
+        <v>18546</v>
+      </c>
+      <c r="G20" s="13">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="10">
+        <v>16959</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2327</v>
+      </c>
+      <c r="F21" s="10">
+        <v>16265</v>
+      </c>
+      <c r="G21" s="10">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D22" s="13">
         <v>21105</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E22" s="13">
         <v>2904</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F22" s="13">
         <v>14445</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G22" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="14">
+    <row r="23" spans="2:7">
+      <c r="B23" s="14">
         <v>2024</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D23" s="15">
         <v>23283</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E23" s="15">
         <v>2461</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F23" s="15">
         <v>16476</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G23" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="16">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D24" s="17">
         <v>18808</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E24" s="17">
         <v>1903</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F24" s="17">
         <v>14641</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G24" s="17">
         <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10">
-        <v>23712</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2168</v>
-      </c>
-      <c r="F23" s="10">
-        <v>18945</v>
-      </c>
-      <c r="G23" s="10">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="13">
-        <v>27428</v>
-      </c>
-      <c r="E24" s="13">
-        <v>2230</v>
-      </c>
-      <c r="F24" s="13">
-        <v>20021</v>
-      </c>
-      <c r="G24" s="13">
-        <v>500</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1">
@@ -1190,19 +1190,19 @@
         <v>2023</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="10">
-        <v>27013</v>
+        <v>23712</v>
       </c>
       <c r="E25" s="10">
-        <v>2300</v>
+        <v>2168</v>
       </c>
       <c r="F25" s="10">
-        <v>20000</v>
+        <v>18945</v>
       </c>
       <c r="G25" s="10">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="2:7" hidden="1">
@@ -1210,19 +1210,19 @@
         <v>2023</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="13">
-        <v>31023</v>
+        <v>27428</v>
       </c>
       <c r="E26" s="13">
-        <v>2342</v>
+        <v>2230</v>
       </c>
       <c r="F26" s="13">
-        <v>28982</v>
+        <v>20021</v>
       </c>
       <c r="G26" s="13">
-        <v>447</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="2:7" hidden="1">
@@ -1230,19 +1230,19 @@
         <v>2023</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" s="10">
-        <v>28385</v>
+        <v>27013</v>
       </c>
       <c r="E27" s="10">
-        <v>2431</v>
+        <v>2300</v>
       </c>
       <c r="F27" s="10">
-        <v>24333</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="10">
-        <v>453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="2:7" hidden="1">
@@ -1250,19 +1250,19 @@
         <v>2023</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="13">
-        <v>25003</v>
+        <v>31023</v>
       </c>
       <c r="E28" s="13">
-        <v>2254</v>
+        <v>2342</v>
       </c>
       <c r="F28" s="13">
-        <v>22228</v>
+        <v>28982</v>
       </c>
       <c r="G28" s="13">
-        <v>498</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="2:7" hidden="1">
@@ -1270,19 +1270,19 @@
         <v>2023</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="10">
-        <v>24126</v>
+        <v>28385</v>
       </c>
       <c r="E29" s="10">
-        <v>3537</v>
+        <v>2431</v>
       </c>
       <c r="F29" s="10">
-        <v>20706</v>
+        <v>24333</v>
       </c>
       <c r="G29" s="10">
-        <v>501</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="2:7" hidden="1">
@@ -1290,19 +1290,19 @@
         <v>2023</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="13">
-        <v>17034</v>
+        <v>25003</v>
       </c>
       <c r="E30" s="13">
-        <v>3155</v>
+        <v>2254</v>
       </c>
       <c r="F30" s="13">
-        <v>23980</v>
+        <v>22228</v>
       </c>
       <c r="G30" s="13">
-        <v>452</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="2:7" hidden="1">
@@ -1310,19 +1310,19 @@
         <v>2023</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="10">
-        <v>22096</v>
+        <v>24126</v>
       </c>
       <c r="E31" s="10">
-        <v>4765</v>
+        <v>3537</v>
       </c>
       <c r="F31" s="10">
-        <v>25002</v>
+        <v>20706</v>
       </c>
       <c r="G31" s="10">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="2:7" hidden="1">
@@ -1330,99 +1330,99 @@
         <v>2023</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="13">
+        <v>17034</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3155</v>
+      </c>
+      <c r="F32" s="13">
+        <v>23980</v>
+      </c>
+      <c r="G32" s="13">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="10">
+        <v>22096</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4765</v>
+      </c>
+      <c r="F33" s="10">
+        <v>25002</v>
+      </c>
+      <c r="G33" s="10">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D34" s="13">
         <v>20006</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E34" s="13">
         <v>4402</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F34" s="13">
         <v>19178</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G34" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="14">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="14">
         <v>2023</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D35" s="15">
         <v>21056</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E35" s="15">
         <v>4233</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F35" s="15">
         <v>14539</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G35" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="16">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="16">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D36" s="17">
         <v>13761</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E36" s="17">
         <v>3014</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F36" s="17">
         <v>10511</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G36" s="17">
         <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="10">
-        <v>12734</v>
-      </c>
-      <c r="E35" s="10">
-        <v>2867</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1312</v>
-      </c>
-      <c r="G35" s="10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="13">
-        <v>17318</v>
-      </c>
-      <c r="E36" s="13">
-        <v>3869</v>
-      </c>
-      <c r="F36" s="13">
-        <v>9874</v>
-      </c>
-      <c r="G36" s="13">
-        <v>391</v>
       </c>
     </row>
     <row r="37" spans="2:7" hidden="1">
@@ -1430,19 +1430,19 @@
         <v>2022</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="10">
-        <v>21128</v>
+        <v>12734</v>
       </c>
       <c r="E37" s="10">
-        <v>4332</v>
+        <v>2867</v>
       </c>
       <c r="F37" s="10">
-        <v>17447</v>
+        <v>1312</v>
       </c>
       <c r="G37" s="10">
-        <v>389</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1">
@@ -1450,19 +1450,19 @@
         <v>2022</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="13">
-        <v>29334</v>
+        <v>17318</v>
       </c>
       <c r="E38" s="13">
-        <v>5646</v>
+        <v>3869</v>
       </c>
       <c r="F38" s="13">
-        <v>21803</v>
+        <v>9874</v>
       </c>
       <c r="G38" s="13">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="2:7" hidden="1">
@@ -1470,19 +1470,19 @@
         <v>2022</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D39" s="10">
-        <v>10132</v>
+        <v>21128</v>
       </c>
       <c r="E39" s="10">
-        <v>1987</v>
+        <v>4332</v>
       </c>
       <c r="F39" s="10">
-        <v>19216</v>
+        <v>17447</v>
       </c>
       <c r="G39" s="10">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1">
@@ -1490,19 +1490,19 @@
         <v>2022</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="13">
-        <v>23417</v>
+        <v>29334</v>
       </c>
       <c r="E40" s="13">
-        <v>4727</v>
+        <v>5646</v>
       </c>
       <c r="F40" s="13">
-        <v>18976</v>
+        <v>21803</v>
       </c>
       <c r="G40" s="13">
-        <v>438</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="2:7" hidden="1">
@@ -1510,19 +1510,19 @@
         <v>2022</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="10">
-        <v>23723</v>
+        <v>10132</v>
       </c>
       <c r="E41" s="10">
-        <v>4600</v>
+        <v>1987</v>
       </c>
       <c r="F41" s="10">
-        <v>19105</v>
+        <v>19216</v>
       </c>
       <c r="G41" s="10">
-        <v>515</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="2:7" hidden="1">
@@ -1530,19 +1530,19 @@
         <v>2022</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="13">
-        <v>23639</v>
+        <v>23417</v>
       </c>
       <c r="E42" s="13">
-        <v>4652</v>
+        <v>4727</v>
       </c>
       <c r="F42" s="13">
-        <v>19838</v>
+        <v>18976</v>
       </c>
       <c r="G42" s="13">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="2:7" hidden="1">
@@ -1550,19 +1550,19 @@
         <v>2022</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="10">
-        <v>33607</v>
+        <v>23723</v>
       </c>
       <c r="E43" s="10">
-        <v>5153</v>
+        <v>4600</v>
       </c>
       <c r="F43" s="10">
-        <v>15285</v>
+        <v>19105</v>
       </c>
       <c r="G43" s="10">
-        <v>471</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="2:7" hidden="1">
@@ -1570,99 +1570,99 @@
         <v>2022</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="13">
+        <v>23639</v>
+      </c>
+      <c r="E44" s="13">
+        <v>4652</v>
+      </c>
+      <c r="F44" s="13">
+        <v>19838</v>
+      </c>
+      <c r="G44" s="13">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="10">
+        <v>33607</v>
+      </c>
+      <c r="E45" s="10">
+        <v>5153</v>
+      </c>
+      <c r="F45" s="10">
+        <v>15285</v>
+      </c>
+      <c r="G45" s="10">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D46" s="13">
         <v>32929</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E46" s="13">
         <v>4304</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F46" s="13">
         <v>9793</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G46" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="14">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="14">
         <v>2022</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D47" s="15">
         <v>38415</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E47" s="15">
         <v>4114</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F47" s="15">
         <v>6064</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G47" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="16">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="16">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D48" s="17">
         <v>37398</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E48" s="17">
         <v>4763</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F48" s="17">
         <v>11530</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G48" s="17">
         <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="10">
-        <v>42491</v>
-      </c>
-      <c r="E47" s="10">
-        <v>6372</v>
-      </c>
-      <c r="F47" s="10">
-        <v>14360</v>
-      </c>
-      <c r="G47" s="10">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="13">
-        <v>44633</v>
-      </c>
-      <c r="E48" s="13">
-        <v>6341</v>
-      </c>
-      <c r="F48" s="13">
-        <v>13013</v>
-      </c>
-      <c r="G48" s="13">
-        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:7" hidden="1">
@@ -1670,19 +1670,19 @@
         <v>2021</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="10">
-        <v>36362</v>
+        <v>42491</v>
       </c>
       <c r="E49" s="10">
-        <v>5059</v>
+        <v>6372</v>
       </c>
       <c r="F49" s="10">
-        <v>9812</v>
+        <v>14360</v>
       </c>
       <c r="G49" s="10">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="2:7" hidden="1">
@@ -1690,19 +1690,19 @@
         <v>2021</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="13">
-        <v>38930</v>
+        <v>44633</v>
       </c>
       <c r="E50" s="13">
-        <v>5692</v>
+        <v>6341</v>
       </c>
       <c r="F50" s="13">
-        <v>13620</v>
+        <v>13013</v>
       </c>
       <c r="G50" s="13">
-        <v>258</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="2:7" hidden="1">
@@ -1710,19 +1710,19 @@
         <v>2021</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" s="10">
-        <v>38527</v>
+        <v>36362</v>
       </c>
       <c r="E51" s="10">
-        <v>4777</v>
+        <v>5059</v>
       </c>
       <c r="F51" s="10">
-        <v>8801</v>
+        <v>9812</v>
       </c>
       <c r="G51" s="10">
-        <v>264</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="2:7" hidden="1">
@@ -1730,19 +1730,19 @@
         <v>2021</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="13">
-        <v>31574</v>
+        <v>38930</v>
       </c>
       <c r="E52" s="13">
-        <v>4170</v>
+        <v>5692</v>
       </c>
       <c r="F52" s="13">
-        <v>11639</v>
+        <v>13620</v>
       </c>
       <c r="G52" s="13">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="2:7" hidden="1">
@@ -1750,19 +1750,19 @@
         <v>2021</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="10">
-        <v>20882</v>
+        <v>38527</v>
       </c>
       <c r="E53" s="10">
-        <v>4171</v>
+        <v>4777</v>
       </c>
       <c r="F53" s="10">
-        <v>9989</v>
+        <v>8801</v>
       </c>
       <c r="G53" s="10">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="2:7" hidden="1">
@@ -1770,19 +1770,19 @@
         <v>2021</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="13">
-        <v>14823</v>
+        <v>31574</v>
       </c>
       <c r="E54" s="13">
-        <v>3009</v>
+        <v>4170</v>
       </c>
       <c r="F54" s="13">
-        <v>10956</v>
+        <v>11639</v>
       </c>
       <c r="G54" s="13">
-        <v>215</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="2:7" hidden="1">
@@ -1790,19 +1790,19 @@
         <v>2021</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="10">
-        <v>15036</v>
+        <v>20882</v>
       </c>
       <c r="E55" s="10">
-        <v>3689</v>
+        <v>4171</v>
       </c>
       <c r="F55" s="10">
-        <v>10676</v>
+        <v>9989</v>
       </c>
       <c r="G55" s="10">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="2:7" hidden="1">
@@ -1810,99 +1810,99 @@
         <v>2021</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="13">
+        <v>14823</v>
+      </c>
+      <c r="E56" s="13">
+        <v>3009</v>
+      </c>
+      <c r="F56" s="13">
+        <v>10956</v>
+      </c>
+      <c r="G56" s="13">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="10">
+        <v>15036</v>
+      </c>
+      <c r="E57" s="10">
+        <v>3689</v>
+      </c>
+      <c r="F57" s="10">
+        <v>10676</v>
+      </c>
+      <c r="G57" s="10">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D58" s="13">
         <v>9491</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E58" s="13">
         <v>1331</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F58" s="13">
         <v>8444</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G58" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="14">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="14">
         <v>2021</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D59" s="15">
         <v>7242</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E59" s="15">
         <v>1008</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F59" s="15">
         <v>4857</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G59" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="16">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="16">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D60" s="17">
         <v>6302</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E60" s="17">
         <v>1143</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F60" s="17">
         <v>5394</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G60" s="17">
         <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="10">
-        <v>7308</v>
-      </c>
-      <c r="E59" s="10">
-        <v>1210</v>
-      </c>
-      <c r="F59" s="10">
-        <v>7405</v>
-      </c>
-      <c r="G59" s="10">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="13">
-        <v>7955</v>
-      </c>
-      <c r="E60" s="13">
-        <v>1236</v>
-      </c>
-      <c r="F60" s="13">
-        <v>7888</v>
-      </c>
-      <c r="G60" s="13">
-        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:7" hidden="1">
@@ -1910,19 +1910,19 @@
         <v>2020</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" s="10">
-        <v>6146</v>
+        <v>7308</v>
       </c>
       <c r="E61" s="10">
-        <v>748</v>
+        <v>1210</v>
       </c>
       <c r="F61" s="10">
-        <v>6869</v>
+        <v>7405</v>
       </c>
       <c r="G61" s="10">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="2:7" hidden="1">
@@ -1930,19 +1930,19 @@
         <v>2020</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="13">
-        <v>1848</v>
+        <v>7955</v>
       </c>
       <c r="E62" s="13">
-        <v>396</v>
+        <v>1236</v>
       </c>
       <c r="F62" s="13">
-        <v>5235</v>
+        <v>7888</v>
       </c>
       <c r="G62" s="13">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="2:7" hidden="1">
@@ -1950,19 +1950,19 @@
         <v>2020</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D63" s="10">
-        <v>2211</v>
+        <v>6146</v>
       </c>
       <c r="E63" s="10">
-        <v>580</v>
+        <v>748</v>
       </c>
       <c r="F63" s="10">
-        <v>1076</v>
+        <v>6869</v>
       </c>
       <c r="G63" s="10">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:7" hidden="1">
@@ -1970,19 +1970,19 @@
         <v>2020</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="13">
-        <v>4370</v>
+        <v>1848</v>
       </c>
       <c r="E64" s="13">
-        <v>1083</v>
+        <v>396</v>
       </c>
       <c r="F64" s="13">
-        <v>1354</v>
+        <v>5235</v>
       </c>
       <c r="G64" s="13">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="2:7" hidden="1">
@@ -1990,16 +1990,16 @@
         <v>2020</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="10">
-        <v>3314</v>
+        <v>2211</v>
       </c>
       <c r="E65" s="10">
-        <v>873</v>
+        <v>580</v>
       </c>
       <c r="F65" s="10">
-        <v>1395</v>
+        <v>1076</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>2020</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="13">
-        <v>1829</v>
+        <v>4370</v>
       </c>
       <c r="E66" s="13">
-        <v>439</v>
+        <v>1083</v>
       </c>
       <c r="F66" s="13">
-        <v>2495</v>
+        <v>1354</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -2030,19 +2030,19 @@
         <v>2020</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="10">
-        <v>13662</v>
+        <v>3314</v>
       </c>
       <c r="E67" s="10">
-        <v>3505</v>
+        <v>873</v>
       </c>
       <c r="F67" s="10">
-        <v>9281</v>
+        <v>1395</v>
       </c>
       <c r="G67" s="10">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:7" hidden="1">
@@ -2050,99 +2050,99 @@
         <v>2020</v>
       </c>
       <c r="C68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="13">
+        <v>1829</v>
+      </c>
+      <c r="E68" s="13">
+        <v>439</v>
+      </c>
+      <c r="F68" s="13">
+        <v>2495</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="10">
+        <v>13662</v>
+      </c>
+      <c r="E69" s="10">
+        <v>3505</v>
+      </c>
+      <c r="F69" s="10">
+        <v>9281</v>
+      </c>
+      <c r="G69" s="10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D70" s="13">
         <v>15545</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E70" s="13">
         <v>3625</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F70" s="13">
         <v>12562</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G70" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="14">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="14">
         <v>2020</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D71" s="15">
         <v>14810</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E71" s="15">
         <v>2699</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F71" s="15">
         <v>9652</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G71" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="16">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="16">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D72" s="17">
         <v>7490</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E72" s="17">
         <v>1315</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F72" s="17">
         <v>10064</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G72" s="17">
         <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="10">
-        <v>10074</v>
-      </c>
-      <c r="E71" s="10">
-        <v>1923</v>
-      </c>
-      <c r="F71" s="10">
-        <v>14022</v>
-      </c>
-      <c r="G71" s="10">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="13">
-        <v>12029</v>
-      </c>
-      <c r="E72" s="13">
-        <v>2021</v>
-      </c>
-      <c r="F72" s="13">
-        <v>15179</v>
-      </c>
-      <c r="G72" s="13">
-        <v>432</v>
       </c>
     </row>
     <row r="73" spans="2:7" hidden="1">
@@ -2150,19 +2150,19 @@
         <v>2019</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="10">
-        <v>10754</v>
+        <v>10074</v>
       </c>
       <c r="E73" s="10">
-        <v>1643</v>
+        <v>1923</v>
       </c>
       <c r="F73" s="10">
-        <v>13758</v>
+        <v>14022</v>
       </c>
       <c r="G73" s="10">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="2:7" hidden="1">
@@ -2170,19 +2170,19 @@
         <v>2019</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="13">
-        <v>11512</v>
+        <v>12029</v>
       </c>
       <c r="E74" s="13">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="F74" s="13">
-        <v>18110</v>
+        <v>15179</v>
       </c>
       <c r="G74" s="13">
-        <v>314</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="2:7" hidden="1">
@@ -2190,19 +2190,19 @@
         <v>2019</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D75" s="10">
-        <v>15714</v>
+        <v>10754</v>
       </c>
       <c r="E75" s="10">
-        <v>2716</v>
+        <v>1643</v>
       </c>
       <c r="F75" s="10">
-        <v>18270</v>
+        <v>13758</v>
       </c>
       <c r="G75" s="10">
-        <v>348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="2:7" hidden="1">
@@ -2210,19 +2210,19 @@
         <v>2019</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="13">
-        <v>16270</v>
+        <v>11512</v>
       </c>
       <c r="E76" s="13">
-        <v>2950</v>
+        <v>2015</v>
       </c>
       <c r="F76" s="13">
-        <v>15350</v>
+        <v>18110</v>
       </c>
       <c r="G76" s="13">
-        <v>387</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1">
@@ -2230,19 +2230,19 @@
         <v>2019</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="10">
-        <v>16437</v>
+        <v>15714</v>
       </c>
       <c r="E77" s="10">
-        <v>2805</v>
+        <v>2716</v>
       </c>
       <c r="F77" s="10">
-        <v>16430</v>
+        <v>18270</v>
       </c>
       <c r="G77" s="10">
-        <v>399</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1">
@@ -2250,19 +2250,19 @@
         <v>2019</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="13">
-        <v>14481</v>
+        <v>16270</v>
       </c>
       <c r="E78" s="13">
-        <v>2612</v>
+        <v>2950</v>
       </c>
       <c r="F78" s="13">
-        <v>15120</v>
+        <v>15350</v>
       </c>
       <c r="G78" s="13">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="79" spans="2:7" hidden="1">
@@ -2270,19 +2270,19 @@
         <v>2019</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" s="10">
-        <v>17161</v>
+        <v>16437</v>
       </c>
       <c r="E79" s="10">
-        <v>2871</v>
+        <v>2805</v>
       </c>
       <c r="F79" s="10">
-        <v>15354</v>
+        <v>16430</v>
       </c>
       <c r="G79" s="10">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="2:7" hidden="1">
@@ -2290,79 +2290,79 @@
         <v>2019</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="13">
-        <v>17075</v>
+        <v>14481</v>
       </c>
       <c r="E80" s="13">
-        <v>2783</v>
+        <v>2612</v>
       </c>
       <c r="F80" s="13">
-        <v>21645</v>
+        <v>15120</v>
       </c>
       <c r="G80" s="13">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="14">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="15">
-        <v>20238</v>
-      </c>
-      <c r="E81" s="15">
-        <v>2855</v>
-      </c>
-      <c r="F81" s="15">
-        <v>10553</v>
-      </c>
-      <c r="G81" s="15">
-        <v>215</v>
+      <c r="C81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="10">
+        <v>17161</v>
+      </c>
+      <c r="E81" s="10">
+        <v>2871</v>
+      </c>
+      <c r="F81" s="10">
+        <v>15354</v>
+      </c>
+      <c r="G81" s="10">
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="2:7" hidden="1">
       <c r="B82" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" s="13">
-        <v>9263</v>
+        <v>17075</v>
       </c>
       <c r="E82" s="13">
-        <v>1691</v>
+        <v>2783</v>
       </c>
       <c r="F82" s="13">
-        <v>9658</v>
+        <v>21645</v>
       </c>
       <c r="G82" s="13">
-        <v>207</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="10">
-        <v>14259</v>
-      </c>
-      <c r="E83" s="10">
-        <v>2518</v>
-      </c>
-      <c r="F83" s="10">
-        <v>13039</v>
-      </c>
-      <c r="G83" s="10">
-        <v>434</v>
+      <c r="B83" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="15">
+        <v>20238</v>
+      </c>
+      <c r="E83" s="15">
+        <v>2855</v>
+      </c>
+      <c r="F83" s="15">
+        <v>10553</v>
+      </c>
+      <c r="G83" s="15">
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="2:7" hidden="1">
@@ -2370,19 +2370,19 @@
         <v>2018</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="13">
-        <v>17136</v>
+        <v>9263</v>
       </c>
       <c r="E84" s="13">
-        <v>2824</v>
+        <v>1691</v>
       </c>
       <c r="F84" s="13">
-        <v>16026</v>
+        <v>9658</v>
       </c>
       <c r="G84" s="13">
-        <v>472</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="2:7" hidden="1">
@@ -2390,19 +2390,19 @@
         <v>2018</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D85" s="10">
-        <v>15322</v>
+        <v>14259</v>
       </c>
       <c r="E85" s="10">
-        <v>2322</v>
+        <v>2518</v>
       </c>
       <c r="F85" s="10">
-        <v>17633</v>
+        <v>13039</v>
       </c>
       <c r="G85" s="10">
-        <v>371</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="2:7" hidden="1">
@@ -2410,19 +2410,19 @@
         <v>2018</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="13">
-        <v>17146</v>
+        <v>17136</v>
       </c>
       <c r="E86" s="13">
-        <v>2633</v>
+        <v>2824</v>
       </c>
       <c r="F86" s="13">
-        <v>22408</v>
+        <v>16026</v>
       </c>
       <c r="G86" s="13">
-        <v>374</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="2:7" hidden="1">
@@ -2430,19 +2430,19 @@
         <v>2018</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D87" s="10">
-        <v>17906</v>
+        <v>15322</v>
       </c>
       <c r="E87" s="10">
-        <v>2583</v>
+        <v>2322</v>
       </c>
       <c r="F87" s="10">
-        <v>20124</v>
+        <v>17633</v>
       </c>
       <c r="G87" s="10">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="2:7" hidden="1">
@@ -2450,19 +2450,19 @@
         <v>2018</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="13">
-        <v>16106</v>
+        <v>17146</v>
       </c>
       <c r="E88" s="13">
-        <v>2362</v>
+        <v>2633</v>
       </c>
       <c r="F88" s="13">
-        <v>15900</v>
+        <v>22408</v>
       </c>
       <c r="G88" s="13">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="2:7" hidden="1">
@@ -2470,19 +2470,19 @@
         <v>2018</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="10">
-        <v>16765</v>
+        <v>17906</v>
       </c>
       <c r="E89" s="10">
-        <v>2628</v>
+        <v>2583</v>
       </c>
       <c r="F89" s="10">
-        <v>17165</v>
+        <v>20124</v>
       </c>
       <c r="G89" s="10">
-        <v>453</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="2:7" hidden="1">
@@ -2490,19 +2490,19 @@
         <v>2018</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" s="13">
-        <v>15305</v>
+        <v>16106</v>
       </c>
       <c r="E90" s="13">
-        <v>2604</v>
+        <v>2362</v>
       </c>
       <c r="F90" s="13">
-        <v>19584</v>
+        <v>15900</v>
       </c>
       <c r="G90" s="13">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="2:7" hidden="1">
@@ -2510,19 +2510,19 @@
         <v>2018</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="10">
-        <v>14295</v>
+        <v>16765</v>
       </c>
       <c r="E91" s="10">
-        <v>2641</v>
+        <v>2628</v>
       </c>
       <c r="F91" s="10">
-        <v>15798</v>
+        <v>17165</v>
       </c>
       <c r="G91" s="10">
-        <v>323</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="2:7" hidden="1">
@@ -2530,19 +2530,19 @@
         <v>2018</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="13">
-        <v>12834</v>
+        <v>15305</v>
       </c>
       <c r="E92" s="13">
-        <v>2298</v>
+        <v>2604</v>
       </c>
       <c r="F92" s="13">
-        <v>14963</v>
+        <v>19584</v>
       </c>
       <c r="G92" s="13">
-        <v>420</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="2:7" hidden="1">
@@ -2550,34 +2550,74 @@
         <v>2018</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" s="10">
-        <v>14378</v>
+        <v>14295</v>
       </c>
       <c r="E93" s="10">
         <v>2641</v>
       </c>
       <c r="F93" s="10">
+        <v>15798</v>
+      </c>
+      <c r="G93" s="10">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" hidden="1">
+      <c r="B94" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="13">
+        <v>12834</v>
+      </c>
+      <c r="E94" s="13">
+        <v>2298</v>
+      </c>
+      <c r="F94" s="13">
+        <v>14963</v>
+      </c>
+      <c r="G94" s="13">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" hidden="1">
+      <c r="B95" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="10">
+        <v>14378</v>
+      </c>
+      <c r="E95" s="10">
+        <v>2641</v>
+      </c>
+      <c r="F95" s="10">
         <v>11312</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G95" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="18" t="s">
+    <row r="96" spans="2:7">
+      <c r="B96" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="3" t="s">
+    <row r="97" spans="2:7">
+      <c r="B97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="G96" s="19"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="G98" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD158A5-88FE-4ACD-BD1B-A51BFAA688A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3D114-608E-42A6-9CAC-4062132189D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G95" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G96" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -745,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I98"/>
+  <dimension ref="B2:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -806,1818 +806,1838 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>30935</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4284</v>
+      </c>
+      <c r="F6" s="11">
+        <v>21100</v>
+      </c>
+      <c r="G6" s="11">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13">
-        <v>24802</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D7" s="13">
+        <v>24801</v>
+      </c>
+      <c r="E7" s="13">
         <v>3584</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>16115</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="9">
+    <row r="8" spans="2:9">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>21530</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>2951</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>19275</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="12">
+    <row r="9" spans="2:9">
+      <c r="B9" s="12">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <v>16324</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>2622</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>23255</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="9">
+    <row r="10" spans="2:9">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>14343</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>2551</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>20076</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="12">
+    <row r="11" spans="2:9">
+      <c r="B11" s="12">
         <v>2025</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>11976</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>2199</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>17325</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="14">
+    <row r="12" spans="2:9">
+      <c r="B12" s="14">
         <v>2025</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="15">
         <v>12153</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>1790</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F12" s="20">
         <v>13650</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G12" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="12">
+    <row r="13" spans="2:9">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <v>8137</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>1400</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>17664</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="9">
+    <row r="14" spans="2:9">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>9121</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>1662</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>18356</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="12">
+    <row r="15" spans="2:9">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <v>10095</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>1837</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>18950</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="9">
+    <row r="16" spans="2:9">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>9675</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>1716</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>17339</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="12">
+    <row r="17" spans="2:7">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>11510</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>2064</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>24464</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="9">
+    <row r="18" spans="2:7">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>11706</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>1974</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>21401</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="12">
+    <row r="19" spans="2:7">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>11842</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>1709</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>18885</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="9">
+    <row r="20" spans="2:7">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>13950</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>2035</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>19876</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="12">
+    <row r="21" spans="2:7">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>16416</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>2293</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>18546</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="9">
+    <row r="22" spans="2:7">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>16959</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>2327</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>16265</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="12">
+    <row r="23" spans="2:7">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>21105</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>2904</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>14445</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="14">
+    <row r="24" spans="2:7">
+      <c r="B24" s="14">
         <v>2024</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <v>23283</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>2461</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>16476</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="16">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>18808</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>1903</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>14641</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>23712</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>2168</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>18945</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>27428</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>2230</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>20021</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>27013</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>2300</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>20000</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>31023</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>2342</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>28982</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>28385</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>2431</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>24333</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>25003</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>2254</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>22228</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>498</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>24126</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>3537</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>20706</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="12">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>17034</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>3155</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>23980</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>22096</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>4765</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>25002</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>20006</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>4402</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>19178</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="14">
         <v>2023</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <v>21056</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>4233</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>14539</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="16">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <v>13761</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>3014</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>10511</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>12734</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>2867</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>1312</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <v>17318</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>3869</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>9874</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>21128</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>4332</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>17447</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>29334</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>5646</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>21803</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <v>10132</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>1987</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>19216</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>422</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>23417</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>4727</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>18976</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>23723</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>4600</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>19105</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="12">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>23639</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>4652</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>19838</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>33607</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>5153</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>15285</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>32929</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>4304</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>9793</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="14">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="14">
         <v>2022</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <v>38415</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>4114</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>6064</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G48" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="16">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <v>37398</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>4763</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>11530</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>42491</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>6372</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>14360</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <v>44633</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>6341</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>13013</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <v>36362</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <v>5059</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>9812</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>38930</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>5692</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>13620</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>38527</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E54" s="10">
         <v>4777</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>8801</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>31574</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>4170</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>11639</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>20882</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>4171</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>9989</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="12">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>14823</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>3009</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>10956</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <v>15036</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E58" s="10">
         <v>3689</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>10676</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>9491</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>1331</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>8444</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="14">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="14">
         <v>2021</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <v>7242</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>1008</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>4857</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G60" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="16">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <v>6302</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>1143</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>5394</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>7308</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>1210</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>7405</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <v>7955</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>1236</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>7888</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>6146</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>748</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>6869</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>1848</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>396</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>5235</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>2211</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="10">
         <v>580</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>1076</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>4370</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>1083</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>1354</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>3314</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>873</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>1395</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="12">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>1829</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>439</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>2495</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>13662</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>3505</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>9281</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>15545</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>3625</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>12562</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="14">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="14">
         <v>2020</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <v>14810</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>2699</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>9652</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G72" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="16">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="17">
         <v>7490</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>1315</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>10064</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>10074</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>1923</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>14022</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>379</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <v>12029</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>2021</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>15179</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>10754</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>1643</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>13758</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>11512</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>2015</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>18110</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>15714</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>2716</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>18270</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>16270</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>2950</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>15350</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>387</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>16437</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>2805</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>16430</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="12">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="12">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <v>14481</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>2612</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>15120</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>17161</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>2871</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>15354</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>17075</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>2783</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>21645</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="14">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="14">
         <v>2019</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="15">
         <v>20238</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>2855</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>10553</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G84" s="15">
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="12">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <v>9263</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>1691</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>9658</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="9">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>14259</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>2518</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>13039</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>434</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="12">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <v>17136</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>2824</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>16026</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="9">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>15322</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>2322</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>17633</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="12">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <v>17146</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>2633</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>22408</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="9">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>17906</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E90" s="10">
         <v>2583</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>20124</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="12">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="12">
         <v>2018</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D91" s="13">
         <v>16106</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>2362</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>15900</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="9">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="9">
         <v>2018</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D92" s="10">
         <v>16765</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E92" s="10">
         <v>2628</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <v>17165</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G92" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="12">
+    <row r="93" spans="2:7" hidden="1">
+      <c r="B93" s="12">
         <v>2018</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D93" s="13">
         <v>15305</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E93" s="13">
         <v>2604</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F93" s="13">
         <v>19584</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G93" s="13">
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1">
-      <c r="B93" s="9">
+    <row r="94" spans="2:7" hidden="1">
+      <c r="B94" s="9">
         <v>2018</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D94" s="10">
         <v>14295</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E94" s="10">
         <v>2641</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F94" s="10">
         <v>15798</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G94" s="10">
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="2:7" hidden="1">
-      <c r="B94" s="12">
+    <row r="95" spans="2:7" hidden="1">
+      <c r="B95" s="12">
         <v>2018</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C95" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D95" s="13">
         <v>12834</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E95" s="13">
         <v>2298</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F95" s="13">
         <v>14963</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G95" s="13">
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1">
-      <c r="B95" s="9">
+    <row r="96" spans="2:7" hidden="1">
+      <c r="B96" s="9">
         <v>2018</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D96" s="10">
         <v>14378</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E96" s="10">
         <v>2641</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F96" s="10">
         <v>11312</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G96" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="18" t="s">
+    <row r="97" spans="2:7">
+      <c r="B97" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="3" t="s">
+    <row r="98" spans="2:7">
+      <c r="B98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="2:7">
       <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="G99" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Superviciones_AF.xlsx
+++ b/Superviciones_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3D114-608E-42A6-9CAC-4062132189D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE34B189-1684-4367-9944-D5863555D282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
   <si>
     <t>Pasaje</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G96" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}" name="Tabla1" displayName="Tabla1" ref="B5:G97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G97" xr:uid="{BF94216F-A542-4BE9-8563-3E9790680C12}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -745,9 +745,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I99"/>
+  <dimension ref="B2:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -806,1838 +806,1858 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13">
+        <v>31291</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4364</v>
+      </c>
+      <c r="F6" s="13">
+        <v>25050</v>
+      </c>
+      <c r="G6" s="13">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>30935</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>4284</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>21100</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="12">
+    <row r="8" spans="2:9">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <v>24801</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>3584</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>16115</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="9">
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>21530</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>2951</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>19275</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="12">
+    <row r="10" spans="2:9">
+      <c r="B10" s="12">
         <v>2025</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <v>16324</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>2622</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>23255</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="9">
+    <row r="11" spans="2:9">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>14343</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>2551</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>20076</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="12">
+    <row r="12" spans="2:9">
+      <c r="B12" s="12">
         <v>2025</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>11976</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>2199</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>17325</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="14">
+    <row r="13" spans="2:9">
+      <c r="B13" s="14">
         <v>2025</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <v>12153</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>1790</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F13" s="20">
         <v>13650</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G13" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="12">
+    <row r="14" spans="2:9">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>8137</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>1400</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>17664</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="9">
+    <row r="15" spans="2:9">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>9121</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>1662</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>18356</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="12">
+    <row r="16" spans="2:9">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>10095</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>1837</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>18950</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="9">
+    <row r="17" spans="2:7">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>9675</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>1716</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>17339</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="12">
+    <row r="18" spans="2:7">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>11510</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>2064</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>24464</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="9">
+    <row r="19" spans="2:7">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>11706</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>1974</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>21401</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="12">
+    <row r="20" spans="2:7">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>11842</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>1709</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>18885</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="9">
+    <row r="21" spans="2:7">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="10">
-        <v>13950</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2035</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="D21" s="10">
+        <v>13559</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1976</v>
+      </c>
+      <c r="F21" s="10">
         <v>19876</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="12">
+    <row r="22" spans="2:7">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13">
-        <v>16416</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2293</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="D22" s="13">
+        <v>16012</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2209</v>
+      </c>
+      <c r="F22" s="13">
         <v>18546</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="9">
+    <row r="23" spans="2:7">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="10">
-        <v>16959</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2327</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="D23" s="10">
+        <v>16464</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2217</v>
+      </c>
+      <c r="F23" s="10">
         <v>16265</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="12">
+    <row r="24" spans="2:7">
+      <c r="B24" s="12">
         <v>2024</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="13">
-        <v>21105</v>
-      </c>
-      <c r="E23" s="13">
-        <v>2904</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="D24" s="13">
+        <v>20634</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2794</v>
+      </c>
+      <c r="F24" s="13">
         <v>14445</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="14">
+    <row r="25" spans="2:7">
+      <c r="B25" s="14">
         <v>2024</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="15">
-        <v>23283</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2461</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="D25" s="15">
+        <v>22641</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2385</v>
+      </c>
+      <c r="F25" s="15">
         <v>16476</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="15">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="16">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <v>18808</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>1903</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>14641</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>23712</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>2168</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>18945</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>27428</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>2230</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>20021</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>27013</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>2300</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>20000</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>31023</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>2342</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>28982</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>28385</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>2431</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>24333</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>25003</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>2254</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>22228</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="9">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>24126</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>3537</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>20706</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>17034</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>3155</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>23980</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>22096</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>4765</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>25002</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>503</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>20006</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>4402</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>19178</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="14">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="14">
         <v>2023</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <v>21056</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>4233</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>14539</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="15">
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="16">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <v>13761</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>3014</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>10511</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <v>12734</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <v>2867</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>1312</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>17318</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>3869</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>9874</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>21128</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>4332</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>17447</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>29334</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>5646</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>21803</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>10132</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>1987</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>19216</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>23417</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>4727</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>18976</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="9">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <v>23723</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>4600</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>19105</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="12">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <v>23639</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>4652</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>19838</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>33607</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>5153</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>15285</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>32929</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>4304</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>9793</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="14">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="14">
         <v>2022</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <v>38415</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>4114</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>6064</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G49" s="15">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="16">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <v>37398</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>4763</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>11530</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="17">
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <v>42491</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <v>6372</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>14360</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>44633</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>6341</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>13013</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>36362</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <v>5059</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>9812</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>38930</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>5692</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>13620</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>38527</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>4777</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>8801</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>31574</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>4170</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>11639</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="9">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <v>20882</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E57" s="10">
         <v>4171</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>9989</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="12">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>14823</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>3009</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>10956</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>15036</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>3689</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>10676</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>9491</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>1331</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>8444</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="14">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="14">
         <v>2021</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <v>7242</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>1008</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>4857</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G61" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="16">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="17">
         <v>6302</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>1143</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>5394</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="17">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>7308</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>1210</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>7405</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>7955</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>1236</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>7888</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>6146</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>748</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>6869</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>1848</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>396</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>5235</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>2211</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>580</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>1076</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>4370</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>1083</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>1354</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="9">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>3314</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>873</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>1395</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="12">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <v>1829</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>439</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>2495</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>13662</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>3505</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>9281</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>15545</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>3625</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>12562</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="14">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="14">
         <v>2020</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <v>14810</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>2699</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>9652</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G73" s="15">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="16">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="17">
         <v>7490</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>1315</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>10064</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G74" s="17">
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>10074</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>1923</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>14022</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>379</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>12029</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>2021</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>15179</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>10754</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>1643</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>13758</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>11512</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>2015</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>18110</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>15714</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>2716</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>18270</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>16270</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>2950</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>15350</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>387</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>16437</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>2805</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>16430</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>399</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="12">
         <v>2019</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <v>14481</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>2612</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>15120</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>17161</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>2871</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>15354</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>17075</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>2783</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>21645</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="14">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="14">
         <v>2019</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="15">
         <v>20238</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>2855</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>10553</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G85" s="15">
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="12">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="13">
         <v>9263</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>1691</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>9658</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="9">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <v>14259</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>2518</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>13039</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="12">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="13">
         <v>17136</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>2824</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>16026</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="9">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>15322</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E89" s="10">
         <v>2322</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>17633</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="12">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="12">
         <v>2018</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D90" s="13">
         <v>17146</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>2633</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>22408</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="9">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <v>17906</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E91" s="10">
         <v>2583</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <v>20124</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G91" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="12">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="12">
         <v>2018</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C92" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D92" s="13">
         <v>16106</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>2362</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>15900</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>397</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="9">
+    <row r="93" spans="2:7" hidden="1">
+      <c r="B93" s="9">
         <v>2018</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D93" s="10">
         <v>16765</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E93" s="10">
         <v>2628</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F93" s="10">
         <v>17165</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G93" s="10">
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1">
-      <c r="B93" s="12">
+    <row r="94" spans="2:7" hidden="1">
+      <c r="B94" s="12">
         <v>2018</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D94" s="13">
         <v>15305</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E94" s="13">
         <v>2604</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F94" s="13">
         <v>19584</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G94" s="13">
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="2:7" hidden="1">
-      <c r="B94" s="9">
+    <row r="95" spans="2:7" hidden="1">
+      <c r="B95" s="9">
         <v>2018</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D95" s="10">
         <v>14295</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E95" s="10">
         <v>2641</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F95" s="10">
         <v>15798</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G95" s="10">
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1">
-      <c r="B95" s="12">
+    <row r="96" spans="2:7" hidden="1">
+      <c r="B96" s="12">
         <v>2018</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C96" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D96" s="13">
         <v>12834</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E96" s="13">
         <v>2298</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F96" s="13">
         <v>14963</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G96" s="13">
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="2:7" hidden="1">
-      <c r="B96" s="9">
+    <row r="97" spans="2:7" hidden="1">
+      <c r="B97" s="9">
         <v>2018</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D97" s="10">
         <v>14378</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E97" s="10">
         <v>2641</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F97" s="10">
         <v>11312</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G97" s="10">
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="18" t="s">
+    <row r="98" spans="2:7">
+      <c r="B98" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="3" t="s">
+    <row r="99" spans="2:7">
+      <c r="B99" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="2:7">
       <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="G100" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
